--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\DataDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C425576D-958D-4767-815F-23C84134EECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC07CA0B-7B2A-44EF-89FE-980DB55668BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-84820" yWindow="-6780" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -988,10 +988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>last_login_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마지막 로그인일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1811,6 +1807,10 @@
   </si>
   <si>
     <t>계정비번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2294,17 +2294,17 @@
       <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="86.19921875" customWidth="1"/>
-    <col min="9" max="12" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="86.25" customWidth="1"/>
+    <col min="9" max="12" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -2389,12 +2389,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -2403,9 +2403,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -2492,12 +2492,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>30</v>
@@ -2506,8 +2506,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2580,12 +2580,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>30</v>
@@ -2594,9 +2594,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2608,9 +2608,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -2625,63 +2625,63 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>176</v>
       </c>
@@ -2695,12 +2695,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
@@ -2709,12 +2709,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -2723,9 +2723,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2737,7 +2737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>231</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>172</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
@@ -2855,54 +2855,54 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -2911,10 +2911,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2923,12 +2923,12 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>24</v>
@@ -2940,10 +2940,10 @@
         <v>27</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -2960,9 +2960,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>24</v>
@@ -2974,26 +2974,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>30</v>
@@ -3002,8 +3002,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -3017,9 +3017,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>24</v>
@@ -3031,10 +3031,10 @@
         <v>27</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
@@ -3062,12 +3062,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>30</v>
@@ -3076,8 +3076,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3091,9 +3091,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>24</v>
@@ -3105,10 +3105,10 @@
         <v>27</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>32</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="20" t="s">
         <v>55</v>
       </c>
@@ -3147,10 +3147,10 @@
         <v>30</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
@@ -3164,12 +3164,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>30</v>
@@ -3178,8 +3178,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3229,12 +3229,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>30</v>
@@ -3243,10 +3243,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3258,7 +3258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>39</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>34</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>49</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>50</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>51</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>66</v>
       </c>
@@ -3379,12 +3379,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
@@ -3393,7 +3393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -3407,9 +3407,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>24</v>
@@ -3423,10 +3423,10 @@
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>53</v>
       </c>
@@ -3455,12 +3455,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>169</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
@@ -3469,12 +3469,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
@@ -3483,9 +3483,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>24</v>
@@ -3494,10 +3494,10 @@
         <v>30</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="20" t="s">
         <v>231</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="20" t="s">
         <v>92</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="20" t="s">
         <v>93</v>
       </c>
@@ -3539,12 +3539,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
@@ -3553,8 +3553,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>181</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>62</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
@@ -3602,9 +3602,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>24</v>
@@ -3613,15 +3613,15 @@
         <v>26</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>30</v>
@@ -3630,8 +3630,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="5" t="s">
         <v>198</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>55</v>
       </c>
@@ -3687,10 +3687,10 @@
         <v>30</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>53</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3718,12 +3718,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>30</v>
@@ -3732,12 +3732,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>30</v>
@@ -3746,7 +3746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="17" t="s">
         <v>63</v>
       </c>
@@ -3757,10 +3757,10 @@
         <v>26</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>217</v>
       </c>
@@ -3788,12 +3788,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>30</v>
@@ -3802,8 +3802,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="5" t="s">
         <v>198</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>62</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>53</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
         <v>65</v>
       </c>
@@ -3876,12 +3876,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>30</v>
@@ -3890,12 +3890,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>30</v>
@@ -3904,7 +3904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="17" t="s">
         <v>63</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="17" t="s">
         <v>64</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
         <v>217</v>
       </c>
@@ -3946,12 +3946,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>30</v>
@@ -3960,8 +3960,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>186</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="5" t="s">
         <v>198</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>62</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>53</v>
       </c>
@@ -4020,12 +4020,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>30</v>
@@ -4034,12 +4034,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>30</v>
@@ -4048,12 +4048,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>30</v>
@@ -4062,7 +4062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4072,7 +4072,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>189</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="5" t="s">
         <v>198</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>62</v>
@@ -4121,7 +4121,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>53</v>
@@ -4139,13 +4139,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
@@ -4157,13 +4157,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
@@ -4175,8 +4175,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="5" t="s">
         <v>198</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>62</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>53</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>71</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>72</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>65</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>217</v>
       </c>
@@ -4291,12 +4291,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>30</v>
@@ -4305,10 +4305,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4320,7 +4320,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>75</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>77</v>
       </c>
@@ -4354,12 +4354,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>79</v>
       </c>
       <c r="C156" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E156" t="s">
         <v>30</v>
@@ -4368,12 +4368,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>83</v>
       </c>
       <c r="C157" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
@@ -4382,7 +4382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>202</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B160" s="5" t="s">
         <v>198</v>
       </c>
@@ -4410,10 +4410,10 @@
         <v>27</v>
       </c>
       <c r="H160" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B161" s="20" t="s">
         <v>55</v>
       </c>
@@ -4424,10 +4424,10 @@
         <v>30</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>75</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
         <v>87</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="5" t="s">
         <v>198</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>55</v>
       </c>
@@ -4500,10 +4500,10 @@
         <v>30</v>
       </c>
       <c r="H167" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
         <v>219</v>
       </c>
@@ -4517,10 +4517,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
       <c r="B169" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>24</v>
@@ -4532,13 +4532,13 @@
       <c r="F169" s="8"/>
       <c r="G169" s="22"/>
       <c r="H169" s="22" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="22"/>
       <c r="B170" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C170" s="20" t="s">
         <v>24</v>
@@ -4550,10 +4550,10 @@
       <c r="F170" s="22"/>
       <c r="G170" s="22"/>
       <c r="H170" s="22" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>231</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>204</v>
       </c>
@@ -4581,12 +4581,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>88</v>
       </c>
       <c r="C173" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>30</v>
@@ -4595,12 +4595,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>83</v>
       </c>
       <c r="C174" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E174" t="s">
         <v>30</v>
@@ -4609,8 +4609,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>208</v>
       </c>
@@ -4621,10 +4621,10 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B177" s="4" t="s">
         <v>87</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B178" s="5" t="s">
         <v>106</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B179" s="4" t="s">
         <v>219</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="s">
         <v>230</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
         <v>204</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="s">
         <v>108</v>
       </c>
@@ -4711,12 +4711,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>26</v>
@@ -4725,12 +4725,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B184" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>30</v>
@@ -4739,12 +4739,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>30</v>
@@ -4753,9 +4753,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4767,9 +4767,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>24</v>
@@ -4781,10 +4781,10 @@
         <v>27</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>62</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>230</v>
       </c>
@@ -4812,9 +4812,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C191" t="s">
         <v>24</v>
@@ -4826,12 +4826,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>83</v>
       </c>
       <c r="C192" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E192" t="s">
         <v>30</v>
@@ -4840,9 +4840,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4854,7 +4854,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>96</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>62</v>
       </c>
@@ -4882,37 +4882,37 @@
         <v>30</v>
       </c>
       <c r="H197" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H198" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>392</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="E199" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B199" t="s">
-        <v>393</v>
-      </c>
-      <c r="C199" t="s">
-        <v>24</v>
-      </c>
-      <c r="E199" t="s">
-        <v>30</v>
-      </c>
-      <c r="H199" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>83</v>
       </c>
       <c r="C200" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E200" t="s">
         <v>30</v>
@@ -4921,9 +4921,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4935,7 +4935,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>97</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>103</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>102</v>
       </c>
@@ -4980,12 +4980,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>83</v>
       </c>
       <c r="C206" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E206" t="s">
         <v>30</v>
@@ -4994,10 +4994,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -5006,10 +5006,10 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
         <v>97</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
         <v>96</v>
       </c>
@@ -5043,10 +5043,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -5055,10 +5055,10 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B214" s="5" t="s">
         <v>106</v>
       </c>
@@ -5075,9 +5075,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B215" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>25</v>
@@ -5089,10 +5089,10 @@
         <v>30</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B216" s="5" t="s">
         <v>65</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B217" s="5" t="s">
         <v>110</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
         <v>217</v>
       </c>
@@ -5134,12 +5134,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B219" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>30</v>
@@ -5148,9 +5148,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -5162,7 +5162,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
         <v>119</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B223" s="4" t="s">
         <v>120</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B224" s="4" t="s">
         <v>135</v>
       </c>
@@ -5207,21 +5207,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B225" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="C225" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E225" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H225" s="20" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B226" s="4" t="s">
         <v>122</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
         <v>125</v>
       </c>
@@ -5249,12 +5249,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>30</v>
@@ -5263,7 +5263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5273,7 +5273,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
         <v>231</v>
       </c>
@@ -5304,10 +5304,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>25</v>
@@ -5324,13 +5324,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="4" t="s">
@@ -5342,9 +5342,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -5356,10 +5356,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C236" s="10" t="s">
         <v>24</v>
@@ -5376,7 +5376,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>62</v>
@@ -5394,7 +5394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>55</v>
@@ -5412,7 +5412,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B239" s="20" t="s">
         <v>231</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B240" s="20" t="s">
         <v>192</v>
       </c>
@@ -5440,10 +5440,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>24</v>
@@ -5455,16 +5455,16 @@
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D242" s="10"/>
       <c r="E242" s="10" t="s">
@@ -5476,9 +5476,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
@@ -5487,13 +5487,13 @@
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
       <c r="H244" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="22"/>
       <c r="B245" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C245" s="20" t="s">
         <v>24</v>
@@ -5507,16 +5507,16 @@
       </c>
       <c r="G245" s="22"/>
       <c r="H245" s="22" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="22"/>
       <c r="B246" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D246" s="22">
         <v>100</v>
@@ -5527,16 +5527,16 @@
       <c r="F246" s="22"/>
       <c r="G246" s="22"/>
       <c r="H246" s="22" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D247" s="10"/>
       <c r="E247" s="10" t="s">
@@ -5548,7 +5548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5558,9 +5558,9 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -5569,13 +5569,13 @@
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
       <c r="H249" s="21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="22"/>
       <c r="B250" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C250" s="20" t="s">
         <v>24</v>
@@ -5589,16 +5589,16 @@
       </c>
       <c r="G250" s="22"/>
       <c r="H250" s="22" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="22"/>
       <c r="B251" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D251" s="22">
         <v>100</v>
@@ -5609,13 +5609,13 @@
       <c r="F251" s="22"/>
       <c r="G251" s="22"/>
       <c r="H251" s="22" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C252" s="20" t="s">
         <v>24</v>
@@ -5627,16 +5627,16 @@
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
       <c r="H252" s="10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D253" s="10"/>
       <c r="E253" s="10" t="s">
@@ -5648,9 +5648,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
@@ -5659,12 +5659,12 @@
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
       <c r="H255" s="21" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C256" s="20" t="s">
         <v>24</v>
@@ -5676,30 +5676,30 @@
         <v>27</v>
       </c>
       <c r="H256" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>405</v>
+      </c>
+      <c r="C257" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H257" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B257" t="s">
-        <v>406</v>
-      </c>
-      <c r="C257" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E257" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H257" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D258" s="10"/>
       <c r="E258" s="10" t="s">
@@ -5711,9 +5711,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
@@ -5722,13 +5722,13 @@
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
       <c r="H260" s="21" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="20"/>
       <c r="B261" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C261" s="20" t="s">
         <v>24</v>
@@ -5742,13 +5742,13 @@
       </c>
       <c r="G261" s="20"/>
       <c r="H261" s="20" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="20"/>
       <c r="B262" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C262" s="20" t="s">
         <v>24</v>
@@ -5760,16 +5760,16 @@
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
       <c r="H262" s="20" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D263" s="10"/>
       <c r="E263" s="10" t="s">
@@ -5792,22 +5792,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
   <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="7.09765625" style="10" customWidth="1"/>
+    <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="47.69921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.75" style="10" customWidth="1"/>
     <col min="9" max="14" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>224</v>
       </c>
@@ -5864,10 +5864,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>24</v>
@@ -5879,7 +5879,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -5888,7 +5888,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>225</v>
       </c>
@@ -5902,10 +5902,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>25</v>
@@ -5919,7 +5919,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -5928,10 +5928,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>25</v>
@@ -5945,7 +5945,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -5954,9 +5954,9 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>113</v>
@@ -5965,12 +5965,12 @@
         <v>132</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>113</v>
@@ -5979,25 +5979,25 @@
         <v>132</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>238</v>
+        <v>446</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>24</v>
+        <v>362</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -6006,12 +6006,12 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>132</v>
@@ -6020,7 +6020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>228</v>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -6060,7 +6060,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>224</v>
@@ -6084,10 +6084,10 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>25</v>
@@ -6101,7 +6101,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -6110,7 +6110,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>119</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>232</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>233</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>136</v>
       </c>
@@ -6180,10 +6180,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>24</v>
@@ -6195,7 +6195,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -6204,10 +6204,10 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>24</v>
@@ -6219,7 +6219,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -6228,10 +6228,10 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>24</v>
@@ -6243,7 +6243,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -6252,13 +6252,13 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
@@ -6276,9 +6276,9 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -6287,7 +6287,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -6296,10 +6296,10 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>24</v>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -6322,7 +6322,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>228</v>
@@ -6346,7 +6346,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>11</v>
@@ -6370,9 +6370,9 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>24</v>
@@ -6382,44 +6382,44 @@
       </c>
       <c r="F31" s="4"/>
       <c r="H31" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="20" t="s">
+      <c r="C33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10" t="s">
@@ -6437,7 +6437,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -6453,9 +6453,9 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -6464,7 +6464,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -6473,7 +6473,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="5" t="s">
         <v>106</v>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -6499,7 +6499,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>228</v>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -6525,7 +6525,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>65</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>110</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>87</v>
@@ -6577,7 +6577,7 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>219</v>
@@ -6592,7 +6592,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -6601,18 +6601,18 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6628,9 +6628,9 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -6639,7 +6639,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -6648,10 +6648,10 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>24</v>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -6674,7 +6674,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>228</v>
@@ -6689,7 +6689,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -6698,10 +6698,10 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>24</v>
@@ -6713,7 +6713,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -6722,10 +6722,10 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>24</v>
@@ -6737,7 +6737,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -6746,10 +6746,10 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>24</v>
@@ -6761,7 +6761,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -6770,10 +6770,10 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>24</v>
@@ -6785,7 +6785,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -6794,10 +6794,10 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>24</v>
@@ -6809,7 +6809,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -6818,10 +6818,10 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>24</v>
@@ -6833,7 +6833,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -6842,10 +6842,10 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>24</v>
@@ -6857,7 +6857,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -6866,10 +6866,10 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>24</v>
@@ -6881,7 +6881,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -6890,10 +6890,10 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>24</v>
@@ -6905,7 +6905,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -6914,13 +6914,13 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
@@ -6938,7 +6938,7 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -6954,7 +6954,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6970,7 +6970,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6986,9 +6986,9 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -6997,7 +6997,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -7006,9 +7006,9 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>24</v>
@@ -7020,10 +7020,10 @@
         <v>27</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>228</v>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -7049,13 +7049,13 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10" t="s">
@@ -7073,7 +7073,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -7089,9 +7089,9 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -7100,7 +7100,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
@@ -7109,10 +7109,10 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>24</v>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -7135,7 +7135,7 @@
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>228</v>
@@ -7150,7 +7150,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
@@ -7159,7 +7159,7 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>32</v>
@@ -7183,7 +7183,7 @@
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>39</v>
@@ -7207,13 +7207,13 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10" t="s">
@@ -7231,7 +7231,7 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -7247,9 +7247,9 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -7267,10 +7267,10 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>24</v>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -7293,7 +7293,7 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>228</v>
@@ -7308,7 +7308,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -7317,10 +7317,10 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>24</v>
@@ -7332,7 +7332,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -7341,7 +7341,7 @@
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>231</v>
@@ -7365,10 +7365,10 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>24</v>
@@ -7380,7 +7380,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -7389,10 +7389,10 @@
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
     </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>24</v>
@@ -7404,7 +7404,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
@@ -7413,13 +7413,13 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10" t="s">
@@ -7437,7 +7437,7 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -7453,9 +7453,9 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -7473,10 +7473,10 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>24</v>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="10"/>
@@ -7499,7 +7499,7 @@
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>228</v>
@@ -7514,7 +7514,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
@@ -7523,7 +7523,7 @@
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>62</v>
@@ -7538,7 +7538,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
@@ -7547,7 +7547,7 @@
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>55</v>
@@ -7562,7 +7562,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
@@ -7571,7 +7571,7 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>231</v>
@@ -7595,10 +7595,10 @@
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>24</v>
@@ -7610,7 +7610,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
@@ -7619,13 +7619,13 @@
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10" t="s">
@@ -7643,7 +7643,7 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -7659,9 +7659,9 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7679,10 +7679,10 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>24</v>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
@@ -7705,10 +7705,10 @@
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>24</v>
@@ -7720,7 +7720,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
       <c r="H93" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
@@ -7729,10 +7729,10 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>24</v>
@@ -7744,7 +7744,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
@@ -7753,7 +7753,7 @@
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>231</v>
@@ -7777,10 +7777,10 @@
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>24</v>
@@ -7792,7 +7792,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
@@ -7801,13 +7801,13 @@
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10" t="s">
@@ -7825,7 +7825,7 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -7841,9 +7841,9 @@
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -7852,7 +7852,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
@@ -7861,7 +7861,7 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>160</v>
@@ -7887,7 +7887,7 @@
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>228</v>
@@ -7911,7 +7911,7 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>62</v>
@@ -7926,7 +7926,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -7935,7 +7935,7 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>55</v>
@@ -7950,7 +7950,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
@@ -7959,7 +7959,7 @@
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>87</v>
@@ -7974,7 +7974,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -7983,7 +7983,7 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>219</v>
@@ -7998,7 +7998,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
@@ -8007,7 +8007,7 @@
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
     </row>
-    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>139</v>
@@ -8033,27 +8033,27 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10" t="s">
@@ -8071,7 +8071,7 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -8087,9 +8087,9 @@
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -8098,7 +8098,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
@@ -8107,10 +8107,10 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>24</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
@@ -8133,7 +8133,7 @@
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
     </row>
-    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>228</v>
@@ -8157,7 +8157,7 @@
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>32</v>
@@ -8181,9 +8181,9 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>24</v>
@@ -8195,16 +8195,16 @@
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="10" t="s">
@@ -8222,7 +8222,7 @@
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
     </row>
-    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -8238,9 +8238,9 @@
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
     </row>
-    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -8249,7 +8249,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
@@ -8258,7 +8258,7 @@
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
     </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>160</v>
@@ -8284,7 +8284,7 @@
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
     </row>
-    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>87</v>
@@ -8299,7 +8299,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
@@ -8308,13 +8308,13 @@
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="10" t="s">
@@ -8332,7 +8332,7 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
     </row>
-    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -8348,9 +8348,9 @@
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
     </row>
-    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -8359,7 +8359,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
@@ -8368,10 +8368,10 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>24</v>
@@ -8385,10 +8385,10 @@
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>62</v>
       </c>
@@ -8399,10 +8399,10 @@
         <v>30</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>55</v>
       </c>
@@ -8413,10 +8413,10 @@
         <v>30</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>139</v>
       </c>
@@ -8433,10 +8433,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>24</v>
@@ -8448,7 +8448,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
@@ -8457,13 +8457,13 @@
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
     </row>
-    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D128" s="10"/>
       <c r="E128" s="10" t="s">
@@ -8481,9 +8481,9 @@
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8492,10 +8492,10 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>91</v>
@@ -8515,7 +8515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>228</v>
@@ -8532,10 +8532,10 @@
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>230</v>
@@ -8553,7 +8553,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>213</v>
@@ -8571,13 +8571,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
@@ -8589,9 +8589,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8600,7 +8600,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
@@ -8609,9 +8609,9 @@
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
     </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>24</v>
@@ -8623,7 +8623,7 @@
         <v>27</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
@@ -8632,7 +8632,7 @@
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
     </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
         <v>228</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>27</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
@@ -8655,7 +8655,7 @@
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
     </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
         <v>231</v>
       </c>
@@ -8675,18 +8675,18 @@
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
     </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
@@ -8695,18 +8695,18 @@
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
@@ -8715,12 +8715,12 @@
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>30</v>
@@ -8735,9 +8735,9 @@
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
     </row>
-    <row r="146" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B146" s="21"/>
       <c r="C146" s="21"/>
@@ -8755,7 +8755,7 @@
       <c r="M146" s="8"/>
       <c r="N146" s="8"/>
     </row>
-    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>91</v>
@@ -8781,7 +8781,7 @@
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
     </row>
-    <row r="148" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="20" t="s">
         <v>228</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>27</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
@@ -8804,10 +8804,10 @@
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
     </row>
-    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>24</v>
@@ -8819,7 +8819,7 @@
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
@@ -8828,7 +8828,7 @@
       <c r="M149" s="8"/>
       <c r="N149" s="8"/>
     </row>
-    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>230</v>
@@ -8852,7 +8852,7 @@
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
     </row>
-    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="20"/>
       <c r="B151" s="20" t="s">
         <v>213</v>
@@ -8870,7 +8870,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>145</v>
@@ -8894,13 +8894,13 @@
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="20"/>
       <c r="B153" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D153" s="20"/>
       <c r="E153" s="20" t="s">

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC07CA0B-7B2A-44EF-89FE-980DB55668BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7566603-25BE-4E73-8A79-34439C71CA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="449">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1811,6 +1811,14 @@
   </si>
   <si>
     <t>last_login_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2290,21 +2298,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView topLeftCell="A103" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H237" sqref="H237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="86.25" customWidth="1"/>
-    <col min="9" max="12" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="4" max="7" width="4.59765625" customWidth="1"/>
+    <col min="8" max="8" width="86.19921875" customWidth="1"/>
+    <col min="9" max="12" width="7.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2330,7 +2338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2344,7 +2352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2361,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2375,7 +2383,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -2389,7 +2397,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>83</v>
       </c>
@@ -2403,9 +2411,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2419,7 +2427,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2436,7 +2444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2450,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2464,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
@@ -2478,7 +2486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -2492,7 +2500,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
@@ -2506,8 +2514,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
@@ -2521,7 +2529,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2538,7 +2546,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2552,7 +2560,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2566,7 +2574,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2580,7 +2588,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>333</v>
       </c>
@@ -2608,7 +2616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>343</v>
       </c>
@@ -2625,7 +2633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>321</v>
       </c>
@@ -2639,7 +2647,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>324</v>
       </c>
@@ -2653,7 +2661,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>325</v>
       </c>
@@ -2667,7 +2675,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>326</v>
       </c>
@@ -2681,7 +2689,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
         <v>176</v>
       </c>
@@ -2695,7 +2703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2709,7 +2717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -2723,7 +2731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>364</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2754,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2771,7 +2779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2785,7 +2793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2799,7 +2807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -2813,7 +2821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
         <v>231</v>
       </c>
@@ -2827,7 +2835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
         <v>172</v>
       </c>
@@ -2841,7 +2849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
@@ -2855,7 +2863,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>424</v>
       </c>
@@ -2869,7 +2877,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="4" t="s">
         <v>271</v>
       </c>
@@ -2883,7 +2891,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>329</v>
       </c>
@@ -2897,7 +2905,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2911,8 +2919,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>334</v>
       </c>
@@ -2926,7 +2934,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="5" t="s">
         <v>344</v>
       </c>
@@ -2943,7 +2951,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -2960,7 +2968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
         <v>343</v>
       </c>
@@ -2974,7 +2982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
         <v>345</v>
       </c>
@@ -2988,7 +2996,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
@@ -3002,8 +3010,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -3017,7 +3025,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
         <v>275</v>
       </c>
@@ -3034,7 +3042,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3048,7 +3056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
@@ -3062,7 +3070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
@@ -3076,8 +3084,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3091,7 +3099,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="5" t="s">
         <v>278</v>
       </c>
@@ -3108,7 +3116,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
         <v>32</v>
       </c>
@@ -3122,7 +3130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3136,7 +3144,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" s="20" t="s">
         <v>55</v>
       </c>
@@ -3150,7 +3158,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
@@ -3164,7 +3172,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
@@ -3178,8 +3186,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -3193,7 +3201,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
@@ -3212,7 +3220,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3229,7 +3237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
@@ -3243,8 +3251,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>365</v>
       </c>
@@ -3258,7 +3266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>39</v>
       </c>
@@ -3275,7 +3283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -3292,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -3306,7 +3314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>34</v>
       </c>
@@ -3320,7 +3328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>49</v>
       </c>
@@ -3334,7 +3342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>50</v>
       </c>
@@ -3348,7 +3356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>51</v>
       </c>
@@ -3362,7 +3370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>66</v>
       </c>
@@ -3379,7 +3387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>83</v>
       </c>
@@ -3393,7 +3401,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -3407,7 +3415,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="19" t="s">
         <v>394</v>
       </c>
@@ -3426,7 +3434,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
@@ -3440,7 +3448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B88" s="4" t="s">
         <v>53</v>
       </c>
@@ -3455,7 +3463,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>169</v>
       </c>
@@ -3469,7 +3477,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>170</v>
       </c>
@@ -3483,7 +3491,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" s="4" t="s">
         <v>388</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B92" s="20" t="s">
         <v>231</v>
       </c>
@@ -3511,7 +3519,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B93" s="20" t="s">
         <v>92</v>
       </c>
@@ -3525,7 +3533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="20" t="s">
         <v>93</v>
       </c>
@@ -3539,7 +3547,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>83</v>
       </c>
@@ -3553,8 +3561,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>181</v>
       </c>
@@ -3568,7 +3576,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B98" s="4" t="s">
         <v>62</v>
       </c>
@@ -3585,7 +3593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
@@ -3602,7 +3610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" s="17" t="s">
         <v>359</v>
       </c>
@@ -3616,7 +3624,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
@@ -3630,8 +3638,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -3645,7 +3653,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="5" t="s">
         <v>198</v>
       </c>
@@ -3662,7 +3670,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
@@ -3676,7 +3684,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B106" s="4" t="s">
         <v>55</v>
       </c>
@@ -3690,7 +3698,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B107" s="4" t="s">
         <v>53</v>
       </c>
@@ -3704,7 +3712,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B109" s="4" t="s">
         <v>58</v>
       </c>
@@ -3732,7 +3740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
@@ -3746,7 +3754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="17" t="s">
         <v>63</v>
       </c>
@@ -3760,7 +3768,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -3774,7 +3782,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B113" s="4" t="s">
         <v>217</v>
       </c>
@@ -3788,7 +3796,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" s="4" t="s">
         <v>83</v>
       </c>
@@ -3802,8 +3810,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
@@ -3817,7 +3825,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B117" s="5" t="s">
         <v>198</v>
       </c>
@@ -3834,7 +3842,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B118" s="4" t="s">
         <v>62</v>
       </c>
@@ -3848,7 +3856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B119" s="4" t="s">
         <v>53</v>
       </c>
@@ -3862,7 +3870,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B120" s="4" t="s">
         <v>65</v>
       </c>
@@ -3876,7 +3884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B121" s="4" t="s">
         <v>58</v>
       </c>
@@ -3890,7 +3898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B122" s="4" t="s">
         <v>61</v>
       </c>
@@ -3904,7 +3912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B123" s="17" t="s">
         <v>63</v>
       </c>
@@ -3918,7 +3926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B124" s="17" t="s">
         <v>64</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B125" s="4" t="s">
         <v>217</v>
       </c>
@@ -3946,7 +3954,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B126" s="4" t="s">
         <v>83</v>
       </c>
@@ -3960,8 +3968,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>186</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B129" s="5" t="s">
         <v>198</v>
       </c>
@@ -3992,7 +4000,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B130" s="4" t="s">
         <v>62</v>
       </c>
@@ -4006,7 +4014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B131" s="4" t="s">
         <v>53</v>
       </c>
@@ -4020,7 +4028,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B132" s="4" t="s">
         <v>58</v>
       </c>
@@ -4034,7 +4042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B133" s="4" t="s">
         <v>61</v>
       </c>
@@ -4048,7 +4056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B134" s="4" t="s">
         <v>83</v>
       </c>
@@ -4062,7 +4070,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4072,7 +4080,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>189</v>
       </c>
@@ -4086,7 +4094,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B137" s="5" t="s">
         <v>198</v>
       </c>
@@ -4103,7 +4111,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>62</v>
@@ -4121,7 +4129,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>53</v>
@@ -4139,7 +4147,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>51</v>
@@ -4157,7 +4165,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
@@ -4175,8 +4183,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
@@ -4190,7 +4198,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B144" s="5" t="s">
         <v>198</v>
       </c>
@@ -4207,7 +4215,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B145" s="4" t="s">
         <v>62</v>
       </c>
@@ -4221,7 +4229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B146" s="4" t="s">
         <v>53</v>
       </c>
@@ -4235,7 +4243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B147" s="4" t="s">
         <v>71</v>
       </c>
@@ -4249,7 +4257,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B148" s="4" t="s">
         <v>72</v>
       </c>
@@ -4263,7 +4271,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B149" s="4" t="s">
         <v>65</v>
       </c>
@@ -4277,7 +4285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B150" s="4" t="s">
         <v>217</v>
       </c>
@@ -4291,7 +4299,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B151" s="4" t="s">
         <v>83</v>
       </c>
@@ -4305,8 +4313,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>366</v>
       </c>
@@ -4320,7 +4328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>75</v>
       </c>
@@ -4337,7 +4345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
         <v>77</v>
       </c>
@@ -4354,7 +4362,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B156" t="s">
         <v>79</v>
       </c>
@@ -4368,7 +4376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B157" t="s">
         <v>83</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>202</v>
       </c>
@@ -4396,7 +4404,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B160" s="5" t="s">
         <v>198</v>
       </c>
@@ -4413,7 +4421,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B161" s="20" t="s">
         <v>55</v>
       </c>
@@ -4427,7 +4435,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B162" t="s">
         <v>75</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -4458,7 +4466,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B165" s="4" t="s">
         <v>87</v>
       </c>
@@ -4475,7 +4483,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B166" s="5" t="s">
         <v>198</v>
       </c>
@@ -4489,7 +4497,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B167" t="s">
         <v>55</v>
       </c>
@@ -4503,7 +4511,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B168" s="4" t="s">
         <v>219</v>
       </c>
@@ -4517,7 +4525,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A169" s="22"/>
       <c r="B169" s="22" t="s">
         <v>396</v>
@@ -4535,7 +4543,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A170" s="22"/>
       <c r="B170" s="22" t="s">
         <v>401</v>
@@ -4553,7 +4561,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B171" t="s">
         <v>231</v>
       </c>
@@ -4567,7 +4575,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B172" t="s">
         <v>204</v>
       </c>
@@ -4581,7 +4589,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
         <v>88</v>
       </c>
@@ -4595,7 +4603,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B174" t="s">
         <v>83</v>
       </c>
@@ -4609,8 +4617,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>208</v>
       </c>
@@ -4624,7 +4632,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B177" s="4" t="s">
         <v>87</v>
       </c>
@@ -4641,7 +4649,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B178" s="5" t="s">
         <v>106</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B179" s="4" t="s">
         <v>219</v>
       </c>
@@ -4669,7 +4677,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B180" s="4" t="s">
         <v>230</v>
       </c>
@@ -4683,7 +4691,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B181" s="4" t="s">
         <v>204</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B182" s="4" t="s">
         <v>108</v>
       </c>
@@ -4711,7 +4719,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B183" s="4" t="s">
         <v>88</v>
       </c>
@@ -4725,7 +4733,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B184" s="4" t="s">
         <v>205</v>
       </c>
@@ -4739,7 +4747,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B185" s="4" t="s">
         <v>83</v>
       </c>
@@ -4753,7 +4761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>367</v>
       </c>
@@ -4767,7 +4775,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B188" s="5" t="s">
         <v>380</v>
       </c>
@@ -4784,7 +4792,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B189" t="s">
         <v>62</v>
       </c>
@@ -4798,7 +4806,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B190" t="s">
         <v>230</v>
       </c>
@@ -4812,7 +4820,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B191" t="s">
         <v>368</v>
       </c>
@@ -4826,7 +4834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B192" t="s">
         <v>83</v>
       </c>
@@ -4840,7 +4848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>370</v>
       </c>
@@ -4854,7 +4862,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B196" t="s">
         <v>96</v>
       </c>
@@ -4871,7 +4879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B197" t="s">
         <v>62</v>
       </c>
@@ -4885,7 +4893,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B198" s="4" t="s">
         <v>55</v>
       </c>
@@ -4893,7 +4901,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B199" t="s">
         <v>392</v>
       </c>
@@ -4907,7 +4915,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B200" t="s">
         <v>83</v>
       </c>
@@ -4921,7 +4929,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>373</v>
       </c>
@@ -4935,7 +4943,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B203" t="s">
         <v>97</v>
       </c>
@@ -4952,7 +4960,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B204" t="s">
         <v>103</v>
       </c>
@@ -4966,7 +4974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B205" t="s">
         <v>102</v>
       </c>
@@ -4980,7 +4988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B206" t="s">
         <v>83</v>
       </c>
@@ -4994,8 +5002,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>371</v>
       </c>
@@ -5009,7 +5017,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B209" s="4" t="s">
         <v>97</v>
       </c>
@@ -5026,7 +5034,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B210" s="4" t="s">
         <v>96</v>
       </c>
@@ -5043,8 +5051,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>383</v>
       </c>
@@ -5058,7 +5066,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B214" s="5" t="s">
         <v>106</v>
       </c>
@@ -5075,7 +5083,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B215" s="5" t="s">
         <v>385</v>
       </c>
@@ -5092,7 +5100,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B216" s="5" t="s">
         <v>65</v>
       </c>
@@ -5106,7 +5114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B217" s="5" t="s">
         <v>110</v>
       </c>
@@ -5120,7 +5128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B218" s="4" t="s">
         <v>217</v>
       </c>
@@ -5134,7 +5142,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B219" s="5" t="s">
         <v>83</v>
       </c>
@@ -5148,7 +5156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>374</v>
       </c>
@@ -5162,7 +5170,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B222" s="4" t="s">
         <v>119</v>
       </c>
@@ -5179,7 +5187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B223" s="4" t="s">
         <v>120</v>
       </c>
@@ -5193,7 +5201,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B224" s="4" t="s">
         <v>135</v>
       </c>
@@ -5207,7 +5215,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B225" s="20" t="s">
         <v>434</v>
       </c>
@@ -5221,7 +5229,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B226" s="4" t="s">
         <v>122</v>
       </c>
@@ -5235,7 +5243,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B227" s="4" t="s">
         <v>125</v>
       </c>
@@ -5249,7 +5257,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B228" s="4" t="s">
         <v>83</v>
       </c>
@@ -5263,7 +5271,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5273,7 +5281,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -5287,7 +5295,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B231" s="4" t="s">
         <v>231</v>
       </c>
@@ -5304,7 +5312,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
         <v>384</v>
@@ -5324,7 +5332,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
         <v>83</v>
@@ -5342,7 +5350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="11" t="s">
         <v>382</v>
       </c>
@@ -5356,7 +5364,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>280</v>
@@ -5376,7 +5384,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>62</v>
@@ -5394,7 +5402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>55</v>
@@ -5412,7 +5420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B239" s="20" t="s">
         <v>231</v>
       </c>
@@ -5426,7 +5434,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B240" s="20" t="s">
         <v>192</v>
       </c>
@@ -5440,7 +5448,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="10"/>
       <c r="B241" s="4" t="s">
         <v>308</v>
@@ -5458,7 +5466,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>83</v>
@@ -5476,7 +5484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="21" t="s">
         <v>395</v>
       </c>
@@ -5490,7 +5498,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="22"/>
       <c r="B245" s="22" t="s">
         <v>396</v>
@@ -5510,7 +5518,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="22"/>
       <c r="B246" s="22" t="s">
         <v>417</v>
@@ -5530,7 +5538,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>83</v>
@@ -5548,7 +5556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5558,7 +5566,7 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A249" s="21" t="s">
         <v>427</v>
       </c>
@@ -5572,7 +5580,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A250" s="22"/>
       <c r="B250" s="22" t="s">
         <v>428</v>
@@ -5592,7 +5600,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A251" s="22"/>
       <c r="B251" s="22" t="s">
         <v>429</v>
@@ -5612,7 +5620,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A252" s="10"/>
       <c r="B252" s="20" t="s">
         <v>430</v>
@@ -5630,7 +5638,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>83</v>
@@ -5648,7 +5656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="21" t="s">
         <v>404</v>
       </c>
@@ -5662,7 +5670,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B256" t="s">
         <v>403</v>
       </c>
@@ -5679,7 +5687,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B257" t="s">
         <v>405</v>
       </c>
@@ -5693,7 +5701,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>83</v>
@@ -5711,7 +5719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260" s="21" t="s">
         <v>412</v>
       </c>
@@ -5725,7 +5733,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261" s="20"/>
       <c r="B261" s="20" t="s">
         <v>406</v>
@@ -5745,7 +5753,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="20"/>
       <c r="B262" s="20" t="s">
         <v>413</v>
@@ -5763,7 +5771,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>83</v>
@@ -5790,24 +5798,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
+    <col min="4" max="6" width="7.09765625" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="47.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.69921875" style="10" customWidth="1"/>
     <col min="9" max="14" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5833,7 +5841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -5847,7 +5855,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>224</v>
       </c>
@@ -5864,7 +5872,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>255</v>
@@ -5888,7 +5896,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>225</v>
       </c>
@@ -5902,7 +5910,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>442</v>
@@ -5928,7 +5936,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>444</v>
@@ -5954,7 +5962,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>403</v>
       </c>
@@ -5968,7 +5976,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>406</v>
       </c>
@@ -5982,7 +5990,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>446</v>
@@ -6006,7 +6014,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>131</v>
       </c>
@@ -6020,7 +6028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
@@ -6034,7 +6042,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>228</v>
@@ -6060,7 +6068,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>224</v>
@@ -6084,7 +6092,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>319</v>
@@ -6110,7 +6118,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>119</v>
       </c>
@@ -6124,7 +6132,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
@@ -6138,7 +6146,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
         <v>232</v>
       </c>
@@ -6152,7 +6160,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
         <v>233</v>
       </c>
@@ -6166,7 +6174,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
         <v>136</v>
       </c>
@@ -6180,7 +6188,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>257</v>
@@ -6204,7 +6212,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>281</v>
@@ -6228,7 +6236,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>283</v>
@@ -6252,22 +6260,22 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>83</v>
+        <v>447</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>362</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
-        <v>84</v>
+        <v>448</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -6276,68 +6284,68 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>228</v>
+        <v>331</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="8"/>
+      <c r="E29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>115</v>
+        <v>332</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -6346,106 +6354,114 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10" t="s">
+      <c r="C31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="C32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="H31" s="6" t="s">
+      <c r="F32" s="4"/>
+      <c r="H32" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="20" t="s">
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="20" t="s">
+      <c r="C33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20" t="s">
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="20" t="s">
+      <c r="C34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="20" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="s">
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -6453,19 +6469,15 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
-        <v>348</v>
-      </c>
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -6473,114 +6485,110 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="C38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8" t="s">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="C39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10" t="s">
+      <c r="G39" s="10"/>
+      <c r="H39" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="4" t="s">
+      <c r="C40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>24</v>
@@ -6592,7 +6600,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10" t="s">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -6601,46 +6609,50 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7" t="s">
-        <v>305</v>
-      </c>
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -6648,24 +6660,18 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10" t="s">
-        <v>286</v>
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -6674,10 +6680,10 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>24</v>
@@ -6686,10 +6692,12 @@
       <c r="E47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -6698,10 +6706,10 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>24</v>
@@ -6713,7 +6721,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -6722,10 +6730,10 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>24</v>
@@ -6737,7 +6745,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -6746,10 +6754,10 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>24</v>
@@ -6761,7 +6769,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -6770,10 +6778,10 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>24</v>
@@ -6785,7 +6793,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -6794,10 +6802,10 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>24</v>
@@ -6809,7 +6817,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -6818,22 +6826,22 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -6842,10 +6850,10 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>24</v>
@@ -6857,7 +6865,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -6866,10 +6874,10 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>24</v>
@@ -6881,7 +6889,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -6890,10 +6898,10 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>24</v>
@@ -6905,7 +6913,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -6914,22 +6922,22 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -6938,15 +6946,23 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -6954,7 +6970,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6970,7 +6986,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6986,19 +7002,15 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7" t="s">
-        <v>358</v>
-      </c>
+    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -7006,65 +7018,61 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="5" t="s">
+    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+    </row>
+    <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="4" t="s">
+      <c r="C63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-    </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="10"/>
+      <c r="F64" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
@@ -7073,15 +7081,23 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
+      <c r="B65" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="H65" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -7089,19 +7105,15 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7" t="s">
-        <v>273</v>
-      </c>
+    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -7109,60 +7121,56 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8" t="s">
+    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+    </row>
+    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="10" t="s">
+      <c r="C68" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8" t="s">
+      <c r="G68" s="8"/>
+      <c r="H68" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-    </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-    </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>24</v>
@@ -7174,7 +7182,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
@@ -7183,10 +7191,10 @@
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>24</v>
@@ -7198,7 +7206,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
@@ -7207,13 +7215,13 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10" t="s">
@@ -7222,7 +7230,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
@@ -7231,15 +7239,23 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
+      <c r="E72" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
+      <c r="H72" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -7247,19 +7263,15 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7" t="s">
-        <v>237</v>
-      </c>
+    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
@@ -7267,60 +7279,56 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8" t="s">
+    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="8" t="s">
+      <c r="C75" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8" t="s">
+      <c r="G75" s="8"/>
+      <c r="H75" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-    </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-    </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>24</v>
@@ -7332,7 +7340,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -7341,10 +7349,10 @@
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>24</v>
@@ -7356,7 +7364,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -7365,10 +7373,10 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>24</v>
@@ -7380,7 +7388,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -7389,10 +7397,10 @@
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
     </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>24</v>
@@ -7404,7 +7412,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
@@ -7413,13 +7421,13 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10" t="s">
@@ -7428,7 +7436,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
@@ -7437,15 +7445,23 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="B81" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
+      <c r="H81" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -7453,19 +7469,15 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7" t="s">
-        <v>237</v>
-      </c>
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -7473,60 +7485,56 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I83" s="8"/>
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="I84" s="10"/>
+    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I84" s="8"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>24</v>
@@ -7538,7 +7546,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
@@ -7547,10 +7555,10 @@
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>24</v>
@@ -7562,7 +7570,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
@@ -7571,10 +7579,10 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
-        <v>231</v>
+        <v>55</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>24</v>
@@ -7586,7 +7594,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
@@ -7595,10 +7603,10 @@
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>24</v>
@@ -7610,7 +7618,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
@@ -7619,13 +7627,13 @@
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10" t="s">
@@ -7634,7 +7642,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
@@ -7643,15 +7651,23 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
+      <c r="B90" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
+      <c r="H90" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
@@ -7659,19 +7675,15 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7" t="s">
-        <v>237</v>
-      </c>
+    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -7679,24 +7691,18 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8" t="s">
-        <v>251</v>
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
@@ -7705,22 +7711,24 @@
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="10"/>
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="8"/>
       <c r="B93" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+        <v>252</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" s="8"/>
       <c r="H93" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
@@ -7729,10 +7737,10 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
-      <c r="B94" s="10" t="s">
-        <v>246</v>
+      <c r="B94" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>24</v>
@@ -7744,7 +7752,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
@@ -7753,10 +7761,10 @@
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>24</v>
@@ -7767,8 +7775,8 @@
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
-      <c r="H95" s="10" t="s">
-        <v>221</v>
+      <c r="H95" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
@@ -7777,10 +7785,10 @@
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>24</v>
@@ -7792,7 +7800,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
@@ -7801,13 +7809,13 @@
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10" t="s">
@@ -7816,7 +7824,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
@@ -7825,15 +7833,23 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
+      <c r="B98" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
+      <c r="E98" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
+      <c r="H98" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -7841,19 +7857,15 @@
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7" t="s">
-        <v>262</v>
-      </c>
+    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -7861,24 +7873,18 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10" t="s">
-        <v>128</v>
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
@@ -7887,10 +7893,10 @@
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>24</v>
@@ -7899,10 +7905,12 @@
       <c r="E101" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F101" s="10"/>
+      <c r="F101" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G101" s="10"/>
       <c r="H101" s="10" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -7911,10 +7919,10 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>24</v>
@@ -7926,7 +7934,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -7935,10 +7943,10 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>24</v>
@@ -7950,7 +7958,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
@@ -7959,22 +7967,22 @@
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -7983,10 +7991,10 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>24</v>
@@ -7998,7 +8006,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
@@ -8007,24 +8015,22 @@
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
     </row>
-    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F106" s="10"/>
-      <c r="G106" s="10">
-        <v>1</v>
-      </c>
+      <c r="G106" s="10"/>
       <c r="H106" s="10" t="s">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -8033,53 +8039,63 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="5" t="s">
+    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10">
+        <v>1</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+    </row>
+    <row r="108" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B108" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H107" s="5" t="s">
+      <c r="C108" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10" t="s">
+    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
-    </row>
-    <row r="109" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
       <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
+      <c r="E109" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
+      <c r="H109" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -8087,19 +8103,15 @@
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7" t="s">
-        <v>440</v>
-      </c>
+    <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -8107,24 +8119,18 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10" t="s">
-        <v>441</v>
+    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
@@ -8133,10 +8139,10 @@
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
     </row>
-    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>24</v>
@@ -8145,10 +8151,12 @@
       <c r="E112" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F112" s="10"/>
+      <c r="F112" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G112" s="10"/>
       <c r="H112" s="10" t="s">
-        <v>115</v>
+        <v>441</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
@@ -8157,10 +8165,10 @@
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>24</v>
@@ -8172,7 +8180,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
@@ -8181,56 +8189,64 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="22" t="s">
+    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+    </row>
+    <row r="115" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="C114" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20" t="s">
+      <c r="C115" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10" t="s">
+    <row r="116" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10"/>
-    </row>
-    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
+      <c r="E116" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
+      <c r="H116" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -8238,19 +8254,15 @@
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
     </row>
-    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7" t="s">
-        <v>306</v>
-      </c>
+    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -8258,24 +8270,18 @@
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
     </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10" t="s">
-        <v>128</v>
+    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
@@ -8284,22 +8290,24 @@
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
     </row>
-    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G119" s="10"/>
       <c r="H119" s="10" t="s">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
@@ -8308,22 +8316,22 @@
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
@@ -8332,15 +8340,23 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
     </row>
-    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
+      <c r="B121" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
+      <c r="E121" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
+      <c r="H121" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -8348,19 +8364,15 @@
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
     </row>
-    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7" t="s">
-        <v>263</v>
-      </c>
+    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
@@ -8368,111 +8380,107 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8" t="s">
+    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F123" s="10" t="s">
+      <c r="C124" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8" t="s">
+      <c r="G124" s="8"/>
+      <c r="H124" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B124" s="10" t="s">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B125" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H124" s="10" t="s">
+      <c r="C125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B125" s="10" t="s">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B126" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" s="10" t="s">
+      <c r="C126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H126" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B126" s="10" t="s">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B127" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" s="10">
+      <c r="C127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" s="10">
         <v>1</v>
       </c>
-      <c r="H126" s="10" t="s">
+      <c r="H127" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8" t="s">
+    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8" t="s">
+      <c r="C128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-    </row>
-    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
@@ -8481,44 +8489,48 @@
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="16" t="s">
+    <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A132" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="3" t="s">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>24</v>
@@ -8531,14 +8543,14 @@
         <v>27</v>
       </c>
       <c r="G133" s="4"/>
-      <c r="H133" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H133" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>24</v>
@@ -8547,16 +8559,18 @@
       <c r="E134" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F134" s="4"/>
+      <c r="F134" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G134" s="4"/>
-      <c r="H134" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H134" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>24</v>
@@ -8568,16 +8582,16 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
@@ -8586,44 +8600,39 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+    <row r="139" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="3" t="s">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
-      <c r="N138" s="10"/>
-    </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
@@ -8632,9 +8641,9 @@
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
     </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B140" s="4" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>24</v>
@@ -8645,8 +8654,8 @@
       <c r="F140" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H140" s="10" t="s">
-        <v>240</v>
+      <c r="H140" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
@@ -8655,9 +8664,9 @@
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
     </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B141" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>24</v>
@@ -8665,8 +8674,11 @@
       <c r="E141" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H141" s="4" t="s">
-        <v>221</v>
+      <c r="F141" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
@@ -8675,9 +8687,9 @@
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
     </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B142" s="4" t="s">
-        <v>315</v>
+        <v>231</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>24</v>
@@ -8686,7 +8698,7 @@
         <v>30</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
@@ -8695,9 +8707,9 @@
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B143" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>24</v>
@@ -8706,7 +8718,7 @@
         <v>30</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
@@ -8715,18 +8727,18 @@
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B144" s="4" t="s">
-        <v>83</v>
+        <v>317</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
@@ -8735,44 +8747,38 @@
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
     </row>
-    <row r="146" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="21" t="s">
+    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B145" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
+      <c r="M145" s="10"/>
+      <c r="N145" s="10"/>
+    </row>
+    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="3" t="s">
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
-      <c r="N146" s="8"/>
-    </row>
-    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F147" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
@@ -8781,57 +8787,59 @@
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
     </row>
-    <row r="148" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>24</v>
       </c>
+      <c r="D148" s="20"/>
       <c r="E148" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F148" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H148" s="10" t="s">
+      <c r="G148" s="20"/>
+      <c r="H148" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+    </row>
+    <row r="149" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B149" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H149" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
-      <c r="N148" s="10"/>
-    </row>
-    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="20"/>
-      <c r="B149" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
-      <c r="N149" s="8"/>
-    </row>
-    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="10"/>
+      <c r="N149" s="10"/>
+    </row>
+    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>24</v>
@@ -8843,7 +8851,7 @@
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
       <c r="H150" s="20" t="s">
-        <v>221</v>
+        <v>437</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
@@ -8852,10 +8860,10 @@
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
     </row>
-    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A151" s="20"/>
       <c r="B151" s="20" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>24</v>
@@ -8867,13 +8875,19 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+    </row>
+    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>24</v>
@@ -8885,22 +8899,16 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="8"/>
-      <c r="N152" s="8"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A153" s="20"/>
       <c r="B153" s="20" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D153" s="20"/>
       <c r="E153" s="20" t="s">
@@ -8909,6 +8917,30 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20" t="s">
         <v>84</v>
       </c>
     </row>

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7566603-25BE-4E73-8A79-34439C71CA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D218B9E1-ED08-4B60-A813-F3AC7DC4197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="449">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2302,17 +2302,17 @@
       <selection activeCell="H237" sqref="H237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="86.19921875" customWidth="1"/>
-    <col min="9" max="12" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="86.25" customWidth="1"/>
+    <col min="9" max="12" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>83</v>
       </c>
@@ -2411,9 +2411,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
@@ -2514,8 +2514,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>333</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>343</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>321</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>324</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>325</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>326</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>176</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>364</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>231</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>172</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>424</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>271</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>329</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2919,8 +2919,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>334</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>344</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -2968,7 +2968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>343</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>345</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
@@ -3010,8 +3010,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
         <v>275</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
@@ -3084,8 +3084,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
         <v>278</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>32</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="20" t="s">
         <v>55</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
@@ -3186,8 +3186,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
@@ -3251,8 +3251,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>365</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>39</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>34</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>49</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>50</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>51</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>66</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>83</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="19" t="s">
         <v>394</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>53</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>169</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>170</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>388</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="20" t="s">
         <v>231</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="20" t="s">
         <v>92</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="20" t="s">
         <v>93</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>83</v>
       </c>
@@ -3561,8 +3561,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>181</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>62</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="17" t="s">
         <v>359</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
@@ -3638,8 +3638,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="5" t="s">
         <v>198</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>55</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>53</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>58</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="17" t="s">
         <v>63</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>217</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>83</v>
       </c>
@@ -3810,8 +3810,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="5" t="s">
         <v>198</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>62</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>53</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
         <v>65</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
         <v>58</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
         <v>61</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="17" t="s">
         <v>63</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="17" t="s">
         <v>64</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
         <v>217</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>83</v>
       </c>
@@ -3968,8 +3968,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>186</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="5" t="s">
         <v>198</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>62</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>53</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>58</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>61</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>83</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4080,7 +4080,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>189</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="5" t="s">
         <v>198</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>62</v>
@@ -4129,7 +4129,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>53</v>
@@ -4147,7 +4147,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>51</v>
@@ -4165,7 +4165,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
@@ -4183,8 +4183,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="5" t="s">
         <v>198</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>62</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>53</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>71</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>72</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>65</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>217</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
         <v>83</v>
       </c>
@@ -4313,8 +4313,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>366</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>75</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>77</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>79</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>83</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>202</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B160" s="5" t="s">
         <v>198</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B161" s="20" t="s">
         <v>55</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>75</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
         <v>87</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="5" t="s">
         <v>198</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>55</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
         <v>219</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
       <c r="B169" s="22" t="s">
         <v>396</v>
@@ -4543,7 +4543,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="22"/>
       <c r="B170" s="22" t="s">
         <v>401</v>
@@ -4561,7 +4561,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>231</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>204</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>88</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>83</v>
       </c>
@@ -4617,8 +4617,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>208</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B177" s="4" t="s">
         <v>87</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B178" s="5" t="s">
         <v>106</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B179" s="4" t="s">
         <v>219</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="s">
         <v>230</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
         <v>204</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="s">
         <v>108</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
         <v>88</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B184" s="4" t="s">
         <v>205</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="s">
         <v>83</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>367</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="5" t="s">
         <v>380</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>62</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>230</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>368</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>83</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>370</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>96</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>62</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
         <v>55</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>392</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>83</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>373</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>97</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>103</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>102</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>83</v>
       </c>
@@ -5002,8 +5002,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>371</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
         <v>97</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
         <v>96</v>
       </c>
@@ -5051,8 +5051,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>383</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B214" s="5" t="s">
         <v>106</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B215" s="5" t="s">
         <v>385</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B216" s="5" t="s">
         <v>65</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B217" s="5" t="s">
         <v>110</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
         <v>217</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B219" s="5" t="s">
         <v>83</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>374</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
         <v>119</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B223" s="4" t="s">
         <v>120</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B224" s="4" t="s">
         <v>135</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B225" s="20" t="s">
         <v>434</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B226" s="4" t="s">
         <v>122</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
         <v>125</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
         <v>83</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5281,7 +5281,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
         <v>231</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
         <v>384</v>
@@ -5332,7 +5332,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
         <v>83</v>
@@ -5350,7 +5350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>382</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>280</v>
@@ -5384,7 +5384,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>62</v>
@@ -5402,7 +5402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>55</v>
@@ -5420,7 +5420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B239" s="20" t="s">
         <v>231</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B240" s="20" t="s">
         <v>192</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="4" t="s">
         <v>308</v>
@@ -5466,7 +5466,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>83</v>
@@ -5484,7 +5484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="21" t="s">
         <v>395</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="22"/>
       <c r="B245" s="22" t="s">
         <v>396</v>
@@ -5518,7 +5518,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="22"/>
       <c r="B246" s="22" t="s">
         <v>417</v>
@@ -5538,7 +5538,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>83</v>
@@ -5556,7 +5556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5566,7 +5566,7 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="21" t="s">
         <v>427</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="22"/>
       <c r="B250" s="22" t="s">
         <v>428</v>
@@ -5600,7 +5600,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="22"/>
       <c r="B251" s="22" t="s">
         <v>429</v>
@@ -5620,7 +5620,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="20" t="s">
         <v>430</v>
@@ -5638,7 +5638,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>83</v>
@@ -5656,7 +5656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
         <v>404</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>403</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>405</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>83</v>
@@ -5719,7 +5719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="21" t="s">
         <v>412</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="20"/>
       <c r="B261" s="20" t="s">
         <v>406</v>
@@ -5753,7 +5753,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="20"/>
       <c r="B262" s="20" t="s">
         <v>413</v>
@@ -5771,7 +5771,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>83</v>
@@ -5798,24 +5798,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:XFD125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="7.09765625" style="10" customWidth="1"/>
+    <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="47.69921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.75" style="10" customWidth="1"/>
     <col min="9" max="14" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>224</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>255</v>
@@ -5896,7 +5896,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>225</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>442</v>
@@ -5936,7 +5936,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>444</v>
@@ -5962,7 +5962,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>403</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>406</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>446</v>
@@ -6014,7 +6014,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>131</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>228</v>
@@ -6068,7 +6068,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>224</v>
@@ -6092,7 +6092,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>319</v>
@@ -6118,7 +6118,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>119</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>232</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>233</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>136</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>257</v>
@@ -6212,7 +6212,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>281</v>
@@ -6236,7 +6236,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>283</v>
@@ -6260,7 +6260,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>447</v>
@@ -6284,7 +6284,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>83</v>
@@ -6308,7 +6308,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>342</v>
       </c>
@@ -6328,7 +6328,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>331</v>
@@ -6354,7 +6354,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
         <v>228</v>
@@ -6378,7 +6378,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>11</v>
@@ -6402,7 +6402,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>335</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
         <v>420</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
         <v>421</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>83</v>
@@ -6469,7 +6469,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -6485,7 +6485,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>351</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="5" t="s">
         <v>106</v>
@@ -6531,7 +6531,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>228</v>
@@ -6557,7 +6557,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>65</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>110</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>87</v>
@@ -6609,7 +6609,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>219</v>
@@ -6633,7 +6633,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>83</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6660,7 +6660,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>376</v>
       </c>
@@ -6680,7 +6680,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>285</v>
@@ -6706,7 +6706,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>228</v>
@@ -6730,7 +6730,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>287</v>
@@ -6754,7 +6754,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>288</v>
@@ -6778,7 +6778,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>289</v>
@@ -6802,7 +6802,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>290</v>
@@ -6826,7 +6826,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>291</v>
@@ -6850,7 +6850,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>297</v>
@@ -6874,7 +6874,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>298</v>
@@ -6898,7 +6898,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>299</v>
@@ -6922,7 +6922,7 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>300</v>
@@ -6946,7 +6946,7 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>83</v>
@@ -6970,7 +6970,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6986,7 +6986,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -7002,7 +7002,7 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -7018,7 +7018,7 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>270</v>
       </c>
@@ -7038,7 +7038,7 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
         <v>275</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>228</v>
@@ -7081,7 +7081,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>83</v>
@@ -7105,7 +7105,7 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -7121,7 +7121,7 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>353</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
         <v>274</v>
@@ -7167,7 +7167,7 @@
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>228</v>
@@ -7191,7 +7191,7 @@
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>32</v>
@@ -7215,7 +7215,7 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>39</v>
@@ -7239,7 +7239,7 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>83</v>
@@ -7263,7 +7263,7 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -7279,7 +7279,7 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>352</v>
       </c>
@@ -7299,7 +7299,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>244</v>
@@ -7325,7 +7325,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>228</v>
@@ -7349,7 +7349,7 @@
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>248</v>
@@ -7373,7 +7373,7 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>231</v>
@@ -7397,7 +7397,7 @@
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
     </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>241</v>
@@ -7421,7 +7421,7 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>242</v>
@@ -7445,7 +7445,7 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>83</v>
@@ -7469,7 +7469,7 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -7485,7 +7485,7 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>354</v>
       </c>
@@ -7505,7 +7505,7 @@
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
         <v>246</v>
@@ -7531,7 +7531,7 @@
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>228</v>
@@ -7555,7 +7555,7 @@
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>62</v>
@@ -7579,7 +7579,7 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>55</v>
@@ -7603,7 +7603,7 @@
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>231</v>
@@ -7627,7 +7627,7 @@
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>242</v>
@@ -7651,7 +7651,7 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>83</v>
@@ -7675,7 +7675,7 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -7691,7 +7691,7 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>355</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="s">
         <v>252</v>
@@ -7737,7 +7737,7 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="8" t="s">
         <v>244</v>
@@ -7761,7 +7761,7 @@
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>246</v>
@@ -7785,7 +7785,7 @@
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>231</v>
@@ -7809,7 +7809,7 @@
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>242</v>
@@ -7833,7 +7833,7 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>83</v>
@@ -7857,7 +7857,7 @@
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -7873,7 +7873,7 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>377</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>160</v>
@@ -7919,7 +7919,7 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>228</v>
@@ -7943,7 +7943,7 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>62</v>
@@ -7967,7 +7967,7 @@
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>55</v>
@@ -7991,7 +7991,7 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>87</v>
@@ -8015,7 +8015,7 @@
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
     </row>
-    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>219</v>
@@ -8039,7 +8039,7 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
         <v>139</v>
@@ -8065,7 +8065,7 @@
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
     </row>
-    <row r="108" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="5" t="s">
         <v>340</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>83</v>
@@ -8103,7 +8103,7 @@
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -8119,7 +8119,7 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>438</v>
       </c>
@@ -8139,7 +8139,7 @@
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
     </row>
-    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>439</v>
@@ -8165,7 +8165,7 @@
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>228</v>
@@ -8189,7 +8189,7 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>32</v>
@@ -8213,7 +8213,7 @@
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
     </row>
-    <row r="115" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B115" s="22" t="s">
         <v>394</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>83</v>
@@ -8254,7 +8254,7 @@
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
     </row>
-    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -8270,7 +8270,7 @@
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
     </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>357</v>
       </c>
@@ -8290,7 +8290,7 @@
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
     </row>
-    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>160</v>
@@ -8316,7 +8316,7 @@
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>87</v>
@@ -8340,7 +8340,7 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
     </row>
-    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>83</v>
@@ -8364,7 +8364,7 @@
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
     </row>
-    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -8380,7 +8380,7 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>378</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="8" t="s">
         <v>264</v>
@@ -8420,91 +8420,91 @@
         <v>265</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B125" s="10" t="s">
+    <row r="125" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B126" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" s="10" t="s">
+      <c r="C126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H126" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B126" s="10" t="s">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B127" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H126" s="10" t="s">
+      <c r="C127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B127" s="10" t="s">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G127" s="10">
+      <c r="C128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" s="10">
         <v>1</v>
       </c>
-      <c r="H127" s="10" t="s">
+      <c r="H128" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8" t="s">
+    <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8" t="s">
+      <c r="C129" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-    </row>
-    <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
@@ -8513,44 +8513,48 @@
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A132" s="16" t="s">
+    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="3" t="s">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>24</v>
@@ -8563,14 +8567,14 @@
         <v>27</v>
       </c>
       <c r="G134" s="4"/>
-      <c r="H134" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H134" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>24</v>
@@ -8579,16 +8583,18 @@
       <c r="E135" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F135" s="4"/>
+      <c r="F135" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G135" s="4"/>
-      <c r="H135" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H135" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>24</v>
@@ -8600,16 +8606,16 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
@@ -8618,44 +8624,39 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="2" t="s">
+    <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="3" t="s">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
-    </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B140" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
@@ -8664,9 +8665,9 @@
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
     </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>24</v>
@@ -8677,8 +8678,8 @@
       <c r="F141" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H141" s="10" t="s">
-        <v>240</v>
+      <c r="H141" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
@@ -8687,9 +8688,9 @@
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
     </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>24</v>
@@ -8697,8 +8698,11 @@
       <c r="E142" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H142" s="4" t="s">
-        <v>221</v>
+      <c r="F142" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
@@ -8707,9 +8711,9 @@
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
-        <v>315</v>
+        <v>231</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>24</v>
@@ -8718,7 +8722,7 @@
         <v>30</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
@@ -8727,9 +8731,9 @@
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>24</v>
@@ -8738,7 +8742,7 @@
         <v>30</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
@@ -8747,18 +8751,18 @@
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
     </row>
-    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
-        <v>83</v>
+        <v>317</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
@@ -8767,44 +8771,38 @@
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
     </row>
-    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="21" t="s">
+    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="10"/>
+    </row>
+    <row r="148" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="3" t="s">
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-    </row>
-    <row r="148" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="20"/>
-      <c r="B148" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F148" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
@@ -8813,57 +8811,59 @@
       <c r="M148" s="8"/>
       <c r="N148" s="8"/>
     </row>
-    <row r="149" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>24</v>
       </c>
+      <c r="D149" s="20"/>
       <c r="E149" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F149" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H149" s="10" t="s">
+      <c r="G149" s="20"/>
+      <c r="H149" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+    </row>
+    <row r="150" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="10"/>
-      <c r="M149" s="10"/>
-      <c r="N149" s="10"/>
-    </row>
-    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="20"/>
-      <c r="B150" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
-      <c r="L150" s="8"/>
-      <c r="M150" s="8"/>
-      <c r="N150" s="8"/>
-    </row>
-    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="10"/>
+      <c r="N150" s="10"/>
+    </row>
+    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="20"/>
       <c r="B151" s="20" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>24</v>
@@ -8875,7 +8875,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20" t="s">
-        <v>221</v>
+        <v>437</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
@@ -8884,10 +8884,10 @@
       <c r="M151" s="8"/>
       <c r="N151" s="8"/>
     </row>
-    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>24</v>
@@ -8899,13 +8899,19 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+    </row>
+    <row r="153" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="20"/>
       <c r="B153" s="20" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>24</v>
@@ -8917,22 +8923,16 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D154" s="20"/>
       <c r="E154" s="20" t="s">
@@ -8941,6 +8941,30 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20" t="s">
         <v>84</v>
       </c>
     </row>

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D218B9E1-ED08-4B60-A813-F3AC7DC4197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42651075-1F00-4A02-83F4-BD1E0904191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="448">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1366,10 +1366,6 @@
   </si>
   <si>
     <t>map_tide_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_wave_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2298,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H237" sqref="H237"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2402,7 +2398,7 @@
         <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -2505,7 +2501,7 @@
         <v>83</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>30</v>
@@ -2593,7 +2589,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>30</v>
@@ -2618,7 +2614,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -2638,7 +2634,7 @@
         <v>321</v>
       </c>
       <c r="C26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>26</v>
@@ -2652,7 +2648,7 @@
         <v>324</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>26</v>
@@ -2666,7 +2662,7 @@
         <v>325</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>26</v>
@@ -2680,7 +2676,7 @@
         <v>326</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>26</v>
@@ -2708,7 +2704,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
@@ -2722,7 +2718,7 @@
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -2733,7 +2729,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2865,16 +2861,16 @@
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2896,7 +2892,7 @@
         <v>329</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>30</v>
@@ -2910,7 +2906,7 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -2931,12 +2927,12 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>24</v>
@@ -2948,7 +2944,7 @@
         <v>27</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2970,7 +2966,7 @@
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>24</v>
@@ -2984,16 +2980,16 @@
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3001,7 +2997,7 @@
         <v>83</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>30</v>
@@ -3075,7 +3071,7 @@
         <v>83</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>30</v>
@@ -3155,7 +3151,7 @@
         <v>30</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3177,7 +3173,7 @@
         <v>83</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>30</v>
@@ -3242,7 +3238,7 @@
         <v>83</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>30</v>
@@ -3254,7 +3250,7 @@
     <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3392,7 +3388,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
@@ -3417,7 +3413,7 @@
     </row>
     <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>24</v>
@@ -3431,7 +3427,7 @@
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3468,7 +3464,7 @@
         <v>169</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
@@ -3482,7 +3478,7 @@
         <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
@@ -3493,7 +3489,7 @@
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>24</v>
@@ -3502,7 +3498,7 @@
         <v>30</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -3552,7 +3548,7 @@
         <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
@@ -3612,7 +3608,7 @@
     </row>
     <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>24</v>
@@ -3621,7 +3617,7 @@
         <v>26</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3629,7 +3625,7 @@
         <v>83</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>30</v>
@@ -3695,7 +3691,7 @@
         <v>30</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3731,7 +3727,7 @@
         <v>58</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>30</v>
@@ -3745,7 +3741,7 @@
         <v>61</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>30</v>
@@ -3765,7 +3761,7 @@
         <v>26</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -3801,7 +3797,7 @@
         <v>83</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>30</v>
@@ -3889,7 +3885,7 @@
         <v>58</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>30</v>
@@ -3903,7 +3899,7 @@
         <v>61</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>30</v>
@@ -3959,7 +3955,7 @@
         <v>83</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>30</v>
@@ -4033,7 +4029,7 @@
         <v>58</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>30</v>
@@ -4047,7 +4043,7 @@
         <v>61</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>30</v>
@@ -4061,7 +4057,7 @@
         <v>83</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>30</v>
@@ -4153,7 +4149,7 @@
         <v>51</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
@@ -4171,7 +4167,7 @@
         <v>83</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
@@ -4304,7 +4300,7 @@
         <v>83</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>30</v>
@@ -4316,7 +4312,7 @@
     <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4367,7 +4363,7 @@
         <v>79</v>
       </c>
       <c r="C156" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E156" t="s">
         <v>30</v>
@@ -4381,7 +4377,7 @@
         <v>83</v>
       </c>
       <c r="C157" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
@@ -4418,7 +4414,7 @@
         <v>27</v>
       </c>
       <c r="H160" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -4432,7 +4428,7 @@
         <v>30</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -4508,7 +4504,7 @@
         <v>30</v>
       </c>
       <c r="H167" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4528,7 +4524,7 @@
     <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
       <c r="B169" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>24</v>
@@ -4540,13 +4536,13 @@
       <c r="F169" s="8"/>
       <c r="G169" s="22"/>
       <c r="H169" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="22"/>
       <c r="B170" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C170" s="20" t="s">
         <v>24</v>
@@ -4558,7 +4554,7 @@
       <c r="F170" s="22"/>
       <c r="G170" s="22"/>
       <c r="H170" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -4594,7 +4590,7 @@
         <v>88</v>
       </c>
       <c r="C173" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>30</v>
@@ -4608,7 +4604,7 @@
         <v>83</v>
       </c>
       <c r="C174" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E174" t="s">
         <v>30</v>
@@ -4629,7 +4625,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4724,7 +4720,7 @@
         <v>88</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>26</v>
@@ -4738,7 +4734,7 @@
         <v>205</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>30</v>
@@ -4752,7 +4748,7 @@
         <v>83</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>30</v>
@@ -4763,7 +4759,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4777,7 +4773,7 @@
     </row>
     <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>24</v>
@@ -4789,7 +4785,7 @@
         <v>27</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -4822,7 +4818,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C191" t="s">
         <v>24</v>
@@ -4839,7 +4835,7 @@
         <v>83</v>
       </c>
       <c r="C192" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E192" t="s">
         <v>30</v>
@@ -4850,7 +4846,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4890,7 +4886,7 @@
         <v>30</v>
       </c>
       <c r="H197" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4898,12 +4894,12 @@
         <v>55</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
@@ -4912,7 +4908,7 @@
         <v>30</v>
       </c>
       <c r="H199" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -4920,7 +4916,7 @@
         <v>83</v>
       </c>
       <c r="C200" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E200" t="s">
         <v>30</v>
@@ -4931,7 +4927,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4993,7 +4989,7 @@
         <v>83</v>
       </c>
       <c r="C206" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E206" t="s">
         <v>30</v>
@@ -5005,7 +5001,7 @@
     <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -5014,7 +5010,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -5054,7 +5050,7 @@
     <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -5063,7 +5059,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5085,7 +5081,7 @@
     </row>
     <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B215" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>25</v>
@@ -5097,7 +5093,7 @@
         <v>30</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5147,7 +5143,7 @@
         <v>83</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>30</v>
@@ -5158,7 +5154,7 @@
     </row>
     <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -5217,16 +5213,16 @@
     </row>
     <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B225" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225" s="20" t="s">
         <v>434</v>
-      </c>
-      <c r="C225" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E225" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H225" s="20" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -5262,7 +5258,7 @@
         <v>83</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>30</v>
@@ -5315,7 +5311,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>25</v>
@@ -5338,7 +5334,7 @@
         <v>83</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="4" t="s">
@@ -5352,7 +5348,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -5472,7 +5468,7 @@
         <v>83</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D242" s="10"/>
       <c r="E242" s="10" t="s">
@@ -5486,7 +5482,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
@@ -5495,13 +5491,13 @@
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
       <c r="H244" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="22"/>
       <c r="B245" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C245" s="20" t="s">
         <v>24</v>
@@ -5515,16 +5511,16 @@
       </c>
       <c r="G245" s="22"/>
       <c r="H245" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="22"/>
       <c r="B246" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D246" s="22">
         <v>100</v>
@@ -5535,7 +5531,7 @@
       <c r="F246" s="22"/>
       <c r="G246" s="22"/>
       <c r="H246" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -5544,7 +5540,7 @@
         <v>83</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D247" s="10"/>
       <c r="E247" s="10" t="s">
@@ -5568,7 +5564,7 @@
     </row>
     <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -5577,13 +5573,13 @@
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
       <c r="H249" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="22"/>
       <c r="B250" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C250" s="20" t="s">
         <v>24</v>
@@ -5597,16 +5593,16 @@
       </c>
       <c r="G250" s="22"/>
       <c r="H250" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="22"/>
       <c r="B251" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D251" s="22">
         <v>100</v>
@@ -5617,13 +5613,13 @@
       <c r="F251" s="22"/>
       <c r="G251" s="22"/>
       <c r="H251" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C252" s="20" t="s">
         <v>24</v>
@@ -5635,7 +5631,7 @@
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
       <c r="H252" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -5644,7 +5640,7 @@
         <v>83</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D253" s="10"/>
       <c r="E253" s="10" t="s">
@@ -5658,7 +5654,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
@@ -5667,12 +5663,12 @@
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
       <c r="H255" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C256" s="20" t="s">
         <v>24</v>
@@ -5684,12 +5680,12 @@
         <v>27</v>
       </c>
       <c r="H256" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C257" s="20" t="s">
         <v>24</v>
@@ -5698,7 +5694,7 @@
         <v>30</v>
       </c>
       <c r="H257" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -5707,7 +5703,7 @@
         <v>83</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D258" s="10"/>
       <c r="E258" s="10" t="s">
@@ -5721,7 +5717,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
@@ -5730,13 +5726,13 @@
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
       <c r="H260" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="20"/>
       <c r="B261" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C261" s="20" t="s">
         <v>24</v>
@@ -5750,13 +5746,13 @@
       </c>
       <c r="G261" s="20"/>
       <c r="H261" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="20"/>
       <c r="B262" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C262" s="20" t="s">
         <v>24</v>
@@ -5768,7 +5764,7 @@
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
       <c r="H262" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -5777,7 +5773,7 @@
         <v>83</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D263" s="10"/>
       <c r="E263" s="10" t="s">
@@ -5798,10 +5794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
-  <dimension ref="A1:N155"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:XFD125"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5913,7 +5909,7 @@
     <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>25</v>
@@ -5927,7 +5923,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -5939,7 +5935,7 @@
     <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>25</v>
@@ -5953,7 +5949,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -5964,7 +5960,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>113</v>
@@ -5973,12 +5969,12 @@
         <v>132</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>113</v>
@@ -5987,16 +5983,16 @@
         <v>132</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
@@ -6019,7 +6015,7 @@
         <v>131</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>132</v>
@@ -6263,10 +6259,10 @@
     <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
@@ -6275,7 +6271,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -6290,7 +6286,7 @@
         <v>83</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="s">
@@ -6310,7 +6306,7 @@
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -6319,7 +6315,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -6402,19 +6398,18 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="H32" s="6" t="s">
-        <v>336</v>
+    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -6431,37 +6426,39 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>423</v>
-      </c>
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -6470,14 +6467,18 @@
       <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="A36" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -6485,81 +6486,75 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="5" t="s">
+    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="C37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="10"/>
+      <c r="B39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="H39" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>24</v>
@@ -6568,27 +6563,37 @@
         <v>30</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="10"/>
       <c r="E41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>24</v>
@@ -6600,7 +6605,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10" t="s">
-        <v>86</v>
+        <v>307</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -6610,49 +6615,45 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="B43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="A45" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -6661,17 +6662,23 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
-        <v>305</v>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -6683,7 +6690,7 @@
     <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>24</v>
@@ -6692,12 +6699,10 @@
       <c r="E47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -6709,7 +6714,7 @@
     <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>24</v>
@@ -6721,7 +6726,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -6733,7 +6738,7 @@
     <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>24</v>
@@ -6745,7 +6750,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -6757,7 +6762,7 @@
     <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>24</v>
@@ -6769,7 +6774,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -6781,7 +6786,7 @@
     <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>24</v>
@@ -6793,7 +6798,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -6805,7 +6810,7 @@
     <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>24</v>
@@ -6817,7 +6822,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -6829,19 +6834,19 @@
     <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -6853,7 +6858,7 @@
     <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>24</v>
@@ -6865,7 +6870,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -6877,7 +6882,7 @@
     <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>24</v>
@@ -6889,7 +6894,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -6901,7 +6906,7 @@
     <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>24</v>
@@ -6913,7 +6918,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -6925,19 +6930,19 @@
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10" t="s">
-        <v>304</v>
+        <v>84</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -6947,22 +6952,14 @@
       <c r="N57" s="10"/>
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -7003,14 +7000,18 @@
       <c r="N60" s="10"/>
     </row>
     <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="A61" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -7018,61 +7019,65 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="5" t="s">
+    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="C62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H62" s="6" t="s">
         <v>277</v>
       </c>
+    </row>
+    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
     </row>
     <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
@@ -7083,21 +7088,13 @@
     </row>
     <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -7106,14 +7103,18 @@
       <c r="N65" s="10"/>
     </row>
     <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="A66" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -7121,56 +7122,60 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-    </row>
-    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8" t="s">
+    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
         <v>274</v>
       </c>
+      <c r="C67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>228</v>
+      </c>
       <c r="C68" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="8"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
     </row>
     <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>24</v>
@@ -7182,7 +7187,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
@@ -7194,7 +7199,7 @@
     <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>24</v>
@@ -7206,7 +7211,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
@@ -7218,10 +7223,10 @@
     <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10" t="s">
@@ -7230,7 +7235,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
@@ -7241,21 +7246,13 @@
     </row>
     <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="10"/>
-      <c r="E72" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -7264,14 +7261,18 @@
       <c r="N72" s="10"/>
     </row>
     <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
+      <c r="A73" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
@@ -7279,56 +7280,60 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-    </row>
-    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8" t="s">
+    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="8" t="s">
+      <c r="C74" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8" t="s">
+      <c r="G74" s="8"/>
+      <c r="H74" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
     </row>
     <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>24</v>
@@ -7340,7 +7345,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -7352,7 +7357,7 @@
     <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>24</v>
@@ -7364,7 +7369,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -7376,7 +7381,7 @@
     <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>24</v>
@@ -7388,7 +7393,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -7400,7 +7405,7 @@
     <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>24</v>
@@ -7412,7 +7417,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
@@ -7424,10 +7429,10 @@
     <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10" t="s">
@@ -7436,7 +7441,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
@@ -7447,21 +7452,13 @@
     </row>
     <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="10"/>
-      <c r="E81" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -7470,14 +7467,18 @@
       <c r="N81" s="10"/>
     </row>
     <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+      <c r="A82" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -7486,19 +7487,25 @@
       <c r="N82" s="10"/>
     </row>
     <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I83" s="10"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I83" s="8"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -7506,25 +7513,23 @@
       <c r="N83" s="10"/>
     </row>
     <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I84" s="8"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -7534,7 +7539,7 @@
     <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>24</v>
@@ -7546,7 +7551,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
@@ -7558,7 +7563,7 @@
     <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>24</v>
@@ -7570,7 +7575,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
@@ -7582,7 +7587,7 @@
     <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>24</v>
@@ -7594,7 +7599,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
@@ -7606,7 +7611,7 @@
     <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>24</v>
@@ -7618,7 +7623,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
@@ -7630,10 +7635,10 @@
     <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10" t="s">
@@ -7642,7 +7647,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
@@ -7653,21 +7658,13 @@
     </row>
     <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
       <c r="D90" s="10"/>
-      <c r="E90" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
@@ -7676,14 +7673,18 @@
       <c r="N90" s="10"/>
     </row>
     <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
+      <c r="A91" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -7692,17 +7693,23 @@
       <c r="N91" s="10"/>
     </row>
     <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7" t="s">
-        <v>237</v>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
@@ -7712,23 +7719,21 @@
       <c r="N92" s="10"/>
     </row>
     <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="8"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" s="8"/>
+        <v>244</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
       <c r="H93" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
@@ -7739,8 +7744,8 @@
     </row>
     <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="8" t="s">
-        <v>244</v>
+      <c r="B94" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>24</v>
@@ -7752,7 +7757,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
@@ -7764,7 +7769,7 @@
     <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>24</v>
@@ -7775,8 +7780,8 @@
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
-      <c r="H95" s="8" t="s">
-        <v>253</v>
+      <c r="H95" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
@@ -7788,7 +7793,7 @@
     <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>24</v>
@@ -7800,7 +7805,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
@@ -7812,10 +7817,10 @@
     <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10" t="s">
@@ -7824,7 +7829,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
@@ -7835,21 +7840,13 @@
     </row>
     <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="B98" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
       <c r="D98" s="10"/>
-      <c r="E98" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -7858,14 +7855,18 @@
       <c r="N98" s="10"/>
     </row>
     <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
+      <c r="A99" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -7874,17 +7875,23 @@
       <c r="N99" s="10"/>
     </row>
     <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7" t="s">
-        <v>262</v>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
@@ -7896,7 +7903,7 @@
     <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>24</v>
@@ -7905,12 +7912,10 @@
       <c r="E101" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F101" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -7922,7 +7927,7 @@
     <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>24</v>
@@ -7934,7 +7939,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -7946,7 +7951,7 @@
     <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>24</v>
@@ -7958,7 +7963,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
@@ -7970,19 +7975,19 @@
     <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -7994,7 +7999,7 @@
     <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>24</v>
@@ -8006,7 +8011,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
@@ -8018,19 +8023,21 @@
     <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
+      <c r="G106" s="10">
+        <v>1</v>
+      </c>
       <c r="H106" s="10" t="s">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -8039,63 +8046,53 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10">
-        <v>1</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-    </row>
-    <row r="108" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="5" t="s">
+    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+    </row>
+    <row r="109" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
-      <c r="B109" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
       <c r="D109" s="10"/>
-      <c r="E109" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E109" s="10"/>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -8104,14 +8101,18 @@
       <c r="N109" s="10"/>
     </row>
     <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
+      <c r="A110" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7" t="s">
+        <v>439</v>
+      </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -8120,16 +8121,22 @@
       <c r="N110" s="10"/>
     </row>
     <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7" t="s">
+      <c r="C111" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10" t="s">
         <v>440</v>
       </c>
       <c r="I111" s="10"/>
@@ -8142,7 +8149,7 @@
     <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
-        <v>439</v>
+        <v>228</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>24</v>
@@ -8151,12 +8158,10 @@
       <c r="E112" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F112" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="10" t="s">
-        <v>441</v>
+        <v>115</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
@@ -8168,7 +8173,7 @@
     <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>24</v>
@@ -8180,7 +8185,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
@@ -8189,64 +8194,56 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
-    </row>
-    <row r="115" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20" t="s">
+    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="22" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+    </row>
+    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
-      <c r="B116" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
-      <c r="H116" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="H116" s="10"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -8255,14 +8252,18 @@
       <c r="N116" s="10"/>
     </row>
     <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
+      <c r="A117" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -8271,17 +8272,23 @@
       <c r="N117" s="10"/>
     </row>
     <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7" t="s">
-        <v>306</v>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
@@ -8293,21 +8300,19 @@
     <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10" t="s">
-        <v>128</v>
+        <v>261</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
@@ -8319,19 +8324,19 @@
     <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
@@ -8342,21 +8347,13 @@
     </row>
     <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
-      <c r="B121" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
       <c r="D121" s="10"/>
-      <c r="E121" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
-      <c r="H121" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="H121" s="10"/>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -8365,14 +8362,18 @@
       <c r="N121" s="10"/>
     </row>
     <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
+      <c r="A122" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
@@ -8380,73 +8381,67 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="10"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C124" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D124" s="8"/>
-      <c r="E124" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E124" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B125" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>24</v>
@@ -8455,12 +8450,12 @@
         <v>30</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>24</v>
@@ -8468,43 +8463,53 @@
       <c r="E127" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="G127" s="10">
+        <v>1</v>
+      </c>
       <c r="H127" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B128" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="D128" s="8"/>
       <c r="E128" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G128" s="10">
-        <v>1</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>138</v>
-      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
     </row>
     <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8" t="s">
-        <v>268</v>
+      <c r="A129" s="10"/>
+      <c r="B129" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D129" s="8"/>
+        <v>361</v>
+      </c>
+      <c r="D129" s="10"/>
       <c r="E129" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8" t="s">
-        <v>269</v>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
@@ -8513,48 +8518,44 @@
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
     </row>
-    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="3" t="s">
-        <v>311</v>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>24</v>
@@ -8567,14 +8568,14 @@
         <v>27</v>
       </c>
       <c r="G134" s="4"/>
-      <c r="H134" s="4" t="s">
-        <v>90</v>
+      <c r="H134" s="10" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>24</v>
@@ -8583,18 +8584,16 @@
       <c r="E135" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="10" t="s">
-        <v>240</v>
+      <c r="H135" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>24</v>
@@ -8606,16 +8605,16 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
@@ -8624,39 +8623,44 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="139" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+    </row>
     <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="3" t="s">
-        <v>312</v>
+      <c r="B140" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
@@ -8667,7 +8671,7 @@
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>24</v>
@@ -8678,8 +8682,8 @@
       <c r="F141" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H141" s="4" t="s">
-        <v>314</v>
+      <c r="H141" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
@@ -8690,7 +8694,7 @@
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>24</v>
@@ -8698,11 +8702,8 @@
       <c r="E142" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>240</v>
+      <c r="H142" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
@@ -8713,7 +8714,7 @@
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>24</v>
@@ -8722,7 +8723,7 @@
         <v>30</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
@@ -8733,7 +8734,7 @@
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>24</v>
@@ -8742,7 +8743,7 @@
         <v>30</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
@@ -8753,16 +8754,16 @@
     </row>
     <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
@@ -8771,38 +8772,44 @@
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
     </row>
-    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
+    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
     </row>
     <row r="148" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="3" t="s">
-        <v>73</v>
+      <c r="A148" s="20"/>
+      <c r="B148" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F148" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
@@ -8811,59 +8818,57 @@
       <c r="M148" s="8"/>
       <c r="N148" s="8"/>
     </row>
-    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="20"/>
+    <row r="149" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="20" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D149" s="20"/>
       <c r="E149" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F149" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
-      <c r="N149" s="8"/>
-    </row>
-    <row r="150" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H149" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="10"/>
+      <c r="N149" s="10"/>
+    </row>
+    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
-        <v>228</v>
+        <v>435</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>24</v>
       </c>
+      <c r="D150" s="20"/>
       <c r="E150" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F150" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H150" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
-      <c r="L150" s="10"/>
-      <c r="M150" s="10"/>
-      <c r="N150" s="10"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
     </row>
     <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="20"/>
       <c r="B151" s="20" t="s">
-        <v>436</v>
+        <v>230</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>24</v>
@@ -8875,7 +8880,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20" t="s">
-        <v>437</v>
+        <v>221</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
@@ -8887,7 +8892,7 @@
     <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>24</v>
@@ -8899,19 +8904,13 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="8"/>
-      <c r="N152" s="8"/>
+        <v>214</v>
+      </c>
     </row>
     <row r="153" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="20"/>
       <c r="B153" s="20" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>24</v>
@@ -8923,16 +8922,22 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="D154" s="20"/>
       <c r="E154" s="20" t="s">
@@ -8941,30 +8946,6 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
-      <c r="K154" s="8"/>
-      <c r="L154" s="8"/>
-      <c r="M154" s="8"/>
-      <c r="N154" s="8"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="20"/>
-      <c r="B155" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20" t="s">
         <v>84</v>
       </c>
     </row>

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42651075-1F00-4A02-83F4-BD1E0904191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04ADE58-8EE6-44E6-828B-9A4E76D18B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
@@ -5796,8 +5796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
   <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04ADE58-8EE6-44E6-828B-9A4E76D18B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD0AB94-4BA0-4FAC-8DA0-5F7D3C2B2D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="448">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5794,10 +5794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6426,58 +6426,50 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="s">
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -6486,50 +6478,34 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10" t="s">
-        <v>240</v>
+      <c r="A38" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -6538,102 +6514,127 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="4" t="s">
+      <c r="C42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10" t="s">
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
+      <c r="C43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10" t="s">
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
+      <c r="C44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -6642,44 +6643,25 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="B45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10" t="s">
-        <v>286</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -6688,21 +6670,17 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10" t="s">
-        <v>240</v>
+      <c r="A47" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -6714,7 +6692,7 @@
     <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>24</v>
@@ -6723,10 +6701,12 @@
       <c r="E48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -6738,7 +6718,7 @@
     <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>24</v>
@@ -6750,7 +6730,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -6762,7 +6742,7 @@
     <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>24</v>
@@ -6774,7 +6754,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -6786,7 +6766,7 @@
     <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>24</v>
@@ -6798,7 +6778,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -6810,7 +6790,7 @@
     <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>24</v>
@@ -6822,7 +6802,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -6834,19 +6814,19 @@
     <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -6858,19 +6838,19 @@
     <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -6882,7 +6862,7 @@
     <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>24</v>
@@ -6894,7 +6874,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -6906,7 +6886,7 @@
     <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>24</v>
@@ -6918,7 +6898,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -6930,19 +6910,19 @@
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -6952,14 +6932,22 @@
       <c r="N57" s="10"/>
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10" t="s">
+        <v>304</v>
+      </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -6968,14 +6956,22 @@
       <c r="N58" s="10"/>
     </row>
     <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -7000,18 +6996,14 @@
       <c r="N60" s="10"/>
     </row>
     <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7" t="s">
-        <v>357</v>
-      </c>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -7019,41 +7011,34 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>277</v>
-      </c>
+    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
     </row>
     <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10" t="s">
-        <v>240</v>
+      <c r="A63" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -7062,39 +7047,42 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
+    <row r="64" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
+      <c r="B65" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="H65" s="10" t="s">
+        <v>240</v>
+      </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -7103,17 +7091,21 @@
       <c r="N65" s="10"/>
     </row>
     <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7" t="s">
-        <v>273</v>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
@@ -7122,48 +7114,34 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
+    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
     </row>
     <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10" t="s">
-        <v>240</v>
+      <c r="A68" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
@@ -7172,34 +7150,36 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="s">
-        <v>32</v>
+    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="10"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
     </row>
     <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>24</v>
@@ -7211,7 +7191,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10" t="s">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
@@ -7223,10 +7203,10 @@
     <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10" t="s">
@@ -7235,7 +7215,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
@@ -7246,13 +7226,21 @@
     </row>
     <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
+      <c r="E72" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
+      <c r="H72" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -7261,17 +7249,21 @@
       <c r="N72" s="10"/>
     </row>
     <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7" t="s">
-        <v>237</v>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
@@ -7280,48 +7272,34 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
+    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
     </row>
     <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10" t="s">
-        <v>239</v>
+      <c r="A75" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -7330,34 +7308,36 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
+    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
     </row>
     <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>24</v>
@@ -7369,7 +7349,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -7381,7 +7361,7 @@
     <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>24</v>
@@ -7393,7 +7373,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -7405,7 +7385,7 @@
     <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>24</v>
@@ -7417,7 +7397,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
@@ -7429,10 +7409,10 @@
     <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10" t="s">
@@ -7441,7 +7421,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10" t="s">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
@@ -7452,13 +7432,21 @@
     </row>
     <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="B81" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
+      <c r="H81" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -7467,17 +7455,21 @@
       <c r="N81" s="10"/>
     </row>
     <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7" t="s">
-        <v>237</v>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
@@ -7487,25 +7479,15 @@
       <c r="N82" s="10"/>
     </row>
     <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I83" s="8"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -7513,21 +7495,17 @@
       <c r="N83" s="10"/>
     </row>
     <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10" t="s">
-        <v>239</v>
+      <c r="A84" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
@@ -7537,23 +7515,25 @@
       <c r="N84" s="10"/>
     </row>
     <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="I85" s="10"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I85" s="8"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
@@ -7563,7 +7543,7 @@
     <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>24</v>
@@ -7575,7 +7555,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
@@ -7587,7 +7567,7 @@
     <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>24</v>
@@ -7599,7 +7579,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
@@ -7611,7 +7591,7 @@
     <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>24</v>
@@ -7623,7 +7603,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
@@ -7635,10 +7615,10 @@
     <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10" t="s">
@@ -7647,7 +7627,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
@@ -7658,13 +7638,21 @@
     </row>
     <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
+      <c r="B90" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
+      <c r="H90" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
@@ -7673,17 +7661,21 @@
       <c r="N90" s="10"/>
     </row>
     <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7" t="s">
-        <v>237</v>
+      <c r="A91" s="10"/>
+      <c r="B91" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
@@ -7693,24 +7685,14 @@
       <c r="N91" s="10"/>
     </row>
     <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8" t="s">
-        <v>251</v>
-      </c>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -7719,21 +7701,17 @@
       <c r="N92" s="10"/>
     </row>
     <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="10"/>
-      <c r="B93" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="8" t="s">
-        <v>254</v>
+      <c r="A93" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
@@ -7743,21 +7721,23 @@
       <c r="N93" s="10"/>
     </row>
     <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" s="8"/>
       <c r="H94" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
@@ -7768,8 +7748,8 @@
     </row>
     <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
-      <c r="B95" s="10" t="s">
-        <v>231</v>
+      <c r="B95" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>24</v>
@@ -7780,8 +7760,8 @@
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
-      <c r="H95" s="10" t="s">
-        <v>221</v>
+      <c r="H95" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
@@ -7793,7 +7773,7 @@
     <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>24</v>
@@ -7804,8 +7784,8 @@
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="10" t="s">
-        <v>245</v>
+      <c r="H96" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
@@ -7817,10 +7797,10 @@
     <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10" t="s">
@@ -7829,7 +7809,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
@@ -7840,13 +7820,21 @@
     </row>
     <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
+      <c r="B98" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
+      <c r="E98" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
+      <c r="H98" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -7855,17 +7843,21 @@
       <c r="N98" s="10"/>
     </row>
     <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7" t="s">
-        <v>262</v>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
@@ -7876,23 +7868,13 @@
     </row>
     <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
-      <c r="B100" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
       <c r="D100" s="10"/>
-      <c r="E100" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
       <c r="G100" s="10"/>
-      <c r="H100" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -7901,21 +7883,17 @@
       <c r="N100" s="10"/>
     </row>
     <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10" t="s">
-        <v>115</v>
+      <c r="A101" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -7927,7 +7905,7 @@
     <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>24</v>
@@ -7936,10 +7914,12 @@
       <c r="E102" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F102" s="10"/>
+      <c r="F102" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -7951,7 +7931,7 @@
     <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>24</v>
@@ -7963,7 +7943,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10" t="s">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
@@ -7975,19 +7955,19 @@
     <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -7999,19 +7979,19 @@
     <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
@@ -8023,21 +8003,19 @@
     <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F106" s="10"/>
-      <c r="G106" s="10">
-        <v>1</v>
-      </c>
+      <c r="G106" s="10"/>
       <c r="H106" s="10" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -8046,36 +8024,48 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>340</v>
-      </c>
+    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
     </row>
     <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
+      <c r="G108" s="10">
+        <v>1</v>
+      </c>
       <c r="H108" s="10" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
@@ -8084,34 +8074,36 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
-    </row>
-    <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7" t="s">
-        <v>439</v>
+    <row r="109" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
@@ -8122,23 +8114,13 @@
     </row>
     <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
-      <c r="B111" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
       <c r="D111" s="10"/>
-      <c r="E111" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="10" t="s">
-        <v>440</v>
-      </c>
+      <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
@@ -8147,21 +8129,17 @@
       <c r="N111" s="10"/>
     </row>
     <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10" t="s">
-        <v>115</v>
+      <c r="A112" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
@@ -8173,7 +8151,7 @@
     <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
-        <v>32</v>
+        <v>438</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>24</v>
@@ -8182,10 +8160,12 @@
       <c r="E113" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F113" s="10"/>
+      <c r="F113" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G113" s="10"/>
       <c r="H113" s="10" t="s">
-        <v>52</v>
+        <v>440</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
@@ -8194,30 +8174,37 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20" t="s">
-        <v>392</v>
-      </c>
+    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
     </row>
     <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="10" t="s">
@@ -8226,7 +8213,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="10" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
@@ -8235,34 +8222,39 @@
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
     </row>
-    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="10"/>
-    </row>
-    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7" t="s">
-        <v>306</v>
+    <row r="116" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
@@ -8273,23 +8265,13 @@
     </row>
     <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
-      <c r="B118" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
       <c r="D118" s="10"/>
-      <c r="E118" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
       <c r="G118" s="10"/>
-      <c r="H118" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H118" s="10"/>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
@@ -8298,21 +8280,17 @@
       <c r="N118" s="10"/>
     </row>
     <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10" t="s">
-        <v>261</v>
+      <c r="A119" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
@@ -8324,19 +8302,21 @@
     <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F120" s="10"/>
+      <c r="F120" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G120" s="10"/>
       <c r="H120" s="10" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
@@ -8347,13 +8327,21 @@
     </row>
     <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
+      <c r="B121" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
+      <c r="E121" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
+      <c r="H121" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -8362,17 +8350,21 @@
       <c r="N121" s="10"/>
     </row>
     <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7" t="s">
-        <v>263</v>
+      <c r="A122" s="10"/>
+      <c r="B122" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
@@ -8381,201 +8373,197 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8" t="s">
+    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+    </row>
+    <row r="124" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F123" s="10" t="s">
+      <c r="C125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8" t="s">
+      <c r="G125" s="8"/>
+      <c r="H125" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8" t="s">
+    <row r="126" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8" t="s">
+      <c r="C126" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B125" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B126" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>266</v>
-      </c>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B129" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G127" s="10">
+      <c r="C129" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" s="10">
         <v>1</v>
       </c>
-      <c r="H127" s="10" t="s">
+      <c r="H129" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8" t="s">
+    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8" t="s">
+      <c r="C130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-    </row>
-    <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10" t="s">
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+    </row>
+    <row r="131" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10" t="s">
+      <c r="D131" s="10"/>
+      <c r="E131" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="16" t="s">
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="3" t="s">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="3" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" s="4"/>
-      <c r="H134" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>24</v>
@@ -8584,16 +8572,18 @@
       <c r="E135" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F135" s="4"/>
+      <c r="F135" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
-        <v>221</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>24</v>
@@ -8602,19 +8592,21 @@
       <c r="E136" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F136" s="4"/>
+      <c r="F136" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G136" s="4"/>
-      <c r="H136" s="4" t="s">
-        <v>212</v>
+      <c r="H136" s="10" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
@@ -8623,67 +8615,57 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="3" t="s">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
-    </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="10"/>
-      <c r="M140" s="10"/>
-      <c r="N140" s="10"/>
-    </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
@@ -8694,7 +8676,7 @@
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>24</v>
@@ -8702,8 +8684,11 @@
       <c r="E142" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F142" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H142" s="4" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
@@ -8714,7 +8699,7 @@
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
-        <v>315</v>
+        <v>228</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>24</v>
@@ -8722,8 +8707,11 @@
       <c r="E143" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>316</v>
+      <c r="F143" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
@@ -8734,7 +8722,7 @@
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
-        <v>317</v>
+        <v>231</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>24</v>
@@ -8743,7 +8731,7 @@
         <v>30</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
@@ -8754,16 +8742,16 @@
     </row>
     <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
-        <v>83</v>
+        <v>315</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
@@ -8772,79 +8760,70 @@
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
     </row>
-    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="21" t="s">
+    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="10"/>
+    </row>
+    <row r="147" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10"/>
+    </row>
+    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="3" t="s">
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-    </row>
-    <row r="148" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="20"/>
-      <c r="B148" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F148" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
-      <c r="N148" s="8"/>
-    </row>
-    <row r="149" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E149" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F149" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H149" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="10"/>
-      <c r="M149" s="10"/>
-      <c r="N149" s="10"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
     </row>
     <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
-        <v>435</v>
+        <v>91</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>24</v>
@@ -8853,10 +8832,12 @@
       <c r="E150" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F150" s="20"/>
+      <c r="F150" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="G150" s="20"/>
       <c r="H150" s="20" t="s">
-        <v>436</v>
+        <v>90</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
@@ -8865,34 +8846,33 @@
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
     </row>
-    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="20"/>
+    <row r="151" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D151" s="20"/>
       <c r="E151" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
-      <c r="N151" s="8"/>
+      <c r="F151" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="10"/>
     </row>
     <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>213</v>
+        <v>435</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>24</v>
@@ -8904,13 +8884,19 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20" t="s">
-        <v>214</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
     </row>
     <row r="153" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="20"/>
       <c r="B153" s="20" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>24</v>
@@ -8922,7 +8908,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
@@ -8931,13 +8917,13 @@
       <c r="M153" s="8"/>
       <c r="N153" s="8"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D154" s="20"/>
       <c r="E154" s="20" t="s">
@@ -8946,6 +8932,48 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156" s="20"/>
+      <c r="B156" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20" t="s">
         <v>84</v>
       </c>
     </row>

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD0AB94-4BA0-4FAC-8DA0-5F7D3C2B2D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E098DA9-CDBC-4D52-AD0C-250726D610B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="449">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1815,6 +1815,10 @@
   </si>
   <si>
     <t>수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가치 = 크기 * 희귀도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2292,23 +2296,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
-  <dimension ref="A1:H263"/>
+  <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="86.25" customWidth="1"/>
-    <col min="9" max="12" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="4" max="7" width="4.59765625" customWidth="1"/>
+    <col min="8" max="8" width="86.19921875" customWidth="1"/>
+    <col min="9" max="12" width="7.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>83</v>
       </c>
@@ -2407,9 +2411,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2423,7 +2427,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
@@ -2510,8 +2514,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
@@ -2525,7 +2529,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2542,7 +2546,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2584,7 +2588,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>333</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>342</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>321</v>
       </c>
@@ -2643,7 +2647,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>324</v>
       </c>
@@ -2657,7 +2661,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>325</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>326</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
         <v>176</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2713,7 +2717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -2727,7 +2731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>363</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -2817,7 +2821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
         <v>231</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
         <v>172</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>423</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="4" t="s">
         <v>271</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>329</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2915,8 +2919,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>334</v>
       </c>
@@ -2930,7 +2934,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="5" t="s">
         <v>343</v>
       </c>
@@ -2947,7 +2951,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -2964,7 +2968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
         <v>342</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
         <v>344</v>
       </c>
@@ -2992,7 +2996,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
@@ -3006,8 +3010,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
         <v>275</v>
       </c>
@@ -3038,7 +3042,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
@@ -3066,7 +3070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
@@ -3080,8 +3084,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3095,7 +3099,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="5" t="s">
         <v>278</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
         <v>32</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" s="20" t="s">
         <v>55</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
@@ -3182,8 +3186,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -3197,7 +3201,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
@@ -3216,7 +3220,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
@@ -3247,8 +3251,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>364</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>39</v>
       </c>
@@ -3279,7 +3283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -3310,7 +3314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>34</v>
       </c>
@@ -3324,7 +3328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>49</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>50</v>
       </c>
@@ -3352,7 +3356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>51</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>66</v>
       </c>
@@ -3383,7 +3387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>83</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -3411,7 +3415,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="19" t="s">
         <v>393</v>
       </c>
@@ -3430,7 +3434,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B88" s="4" t="s">
         <v>53</v>
       </c>
@@ -3459,7 +3463,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>169</v>
       </c>
@@ -3472,8 +3476,11 @@
       <c r="H89" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>170</v>
       </c>
@@ -3487,7 +3494,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" s="4" t="s">
         <v>387</v>
       </c>
@@ -3501,7 +3508,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B92" s="20" t="s">
         <v>231</v>
       </c>
@@ -3515,7 +3522,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B93" s="20" t="s">
         <v>92</v>
       </c>
@@ -3529,7 +3536,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="20" t="s">
         <v>93</v>
       </c>
@@ -3543,7 +3550,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>83</v>
       </c>
@@ -3557,8 +3564,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>181</v>
       </c>
@@ -3572,7 +3579,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B98" s="4" t="s">
         <v>62</v>
       </c>
@@ -3589,7 +3596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
@@ -3606,7 +3613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" s="17" t="s">
         <v>358</v>
       </c>
@@ -3620,7 +3627,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
@@ -3634,8 +3641,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -3649,7 +3656,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="5" t="s">
         <v>198</v>
       </c>
@@ -3666,7 +3673,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
@@ -3680,7 +3687,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B106" s="4" t="s">
         <v>55</v>
       </c>
@@ -3694,7 +3701,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B107" s="4" t="s">
         <v>53</v>
       </c>
@@ -3708,7 +3715,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3722,7 +3729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B109" s="4" t="s">
         <v>58</v>
       </c>
@@ -3736,7 +3743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
@@ -3750,7 +3757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="17" t="s">
         <v>63</v>
       </c>
@@ -3764,7 +3771,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -3778,7 +3785,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B113" s="4" t="s">
         <v>217</v>
       </c>
@@ -3792,7 +3799,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" s="4" t="s">
         <v>83</v>
       </c>
@@ -3806,8 +3813,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
@@ -3821,7 +3828,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B117" s="5" t="s">
         <v>198</v>
       </c>
@@ -3838,7 +3845,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B118" s="4" t="s">
         <v>62</v>
       </c>
@@ -3852,7 +3859,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B119" s="4" t="s">
         <v>53</v>
       </c>
@@ -3866,7 +3873,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B120" s="4" t="s">
         <v>65</v>
       </c>
@@ -3880,7 +3887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B121" s="4" t="s">
         <v>58</v>
       </c>
@@ -3894,7 +3901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B122" s="4" t="s">
         <v>61</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B123" s="17" t="s">
         <v>63</v>
       </c>
@@ -3922,7 +3929,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B124" s="17" t="s">
         <v>64</v>
       </c>
@@ -3936,7 +3943,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B125" s="4" t="s">
         <v>217</v>
       </c>
@@ -3950,7 +3957,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B126" s="4" t="s">
         <v>83</v>
       </c>
@@ -3964,8 +3971,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>186</v>
       </c>
@@ -3979,7 +3986,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B129" s="5" t="s">
         <v>198</v>
       </c>
@@ -3996,7 +4003,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B130" s="4" t="s">
         <v>62</v>
       </c>
@@ -4010,7 +4017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B131" s="4" t="s">
         <v>53</v>
       </c>
@@ -4024,7 +4031,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B132" s="4" t="s">
         <v>58</v>
       </c>
@@ -4038,7 +4045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B133" s="4" t="s">
         <v>61</v>
       </c>
@@ -4052,7 +4059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B134" s="4" t="s">
         <v>83</v>
       </c>
@@ -4066,7 +4073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4076,7 +4083,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>189</v>
       </c>
@@ -4090,7 +4097,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B137" s="5" t="s">
         <v>198</v>
       </c>
@@ -4107,7 +4114,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>62</v>
@@ -4125,7 +4132,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>53</v>
@@ -4143,7 +4150,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>51</v>
@@ -4161,7 +4168,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
@@ -4179,8 +4186,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
@@ -4194,7 +4201,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B144" s="5" t="s">
         <v>198</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B145" s="4" t="s">
         <v>62</v>
       </c>
@@ -4225,7 +4232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B146" s="4" t="s">
         <v>53</v>
       </c>
@@ -4239,7 +4246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B147" s="4" t="s">
         <v>71</v>
       </c>
@@ -4253,7 +4260,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B148" s="4" t="s">
         <v>72</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B149" s="4" t="s">
         <v>65</v>
       </c>
@@ -4281,7 +4288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B150" s="4" t="s">
         <v>217</v>
       </c>
@@ -4295,7 +4302,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B151" s="4" t="s">
         <v>83</v>
       </c>
@@ -4309,8 +4316,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>365</v>
       </c>
@@ -4324,7 +4331,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>75</v>
       </c>
@@ -4341,7 +4348,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
         <v>77</v>
       </c>
@@ -4358,7 +4365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B156" t="s">
         <v>79</v>
       </c>
@@ -4372,7 +4379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B157" t="s">
         <v>83</v>
       </c>
@@ -4386,7 +4393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>202</v>
       </c>
@@ -4400,7 +4407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B160" s="5" t="s">
         <v>198</v>
       </c>
@@ -4417,7 +4424,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B161" s="20" t="s">
         <v>55</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B162" t="s">
         <v>75</v>
       </c>
@@ -4448,7 +4455,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -4462,7 +4469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B165" s="4" t="s">
         <v>87</v>
       </c>
@@ -4479,7 +4486,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B166" s="5" t="s">
         <v>198</v>
       </c>
@@ -4493,7 +4500,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B167" t="s">
         <v>55</v>
       </c>
@@ -4507,7 +4514,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B168" s="4" t="s">
         <v>219</v>
       </c>
@@ -4521,7 +4528,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A169" s="22"/>
       <c r="B169" s="22" t="s">
         <v>395</v>
@@ -4539,7 +4546,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A170" s="22"/>
       <c r="B170" s="22" t="s">
         <v>400</v>
@@ -4557,7 +4564,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B171" t="s">
         <v>231</v>
       </c>
@@ -4571,7 +4578,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B172" t="s">
         <v>204</v>
       </c>
@@ -4585,7 +4592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
         <v>88</v>
       </c>
@@ -4599,7 +4606,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B174" t="s">
         <v>83</v>
       </c>
@@ -4613,8 +4620,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>208</v>
       </c>
@@ -4628,7 +4635,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B177" s="4" t="s">
         <v>87</v>
       </c>
@@ -4645,7 +4652,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B178" s="5" t="s">
         <v>106</v>
       </c>
@@ -4659,7 +4666,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B179" s="4" t="s">
         <v>219</v>
       </c>
@@ -4673,7 +4680,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B180" s="4" t="s">
         <v>230</v>
       </c>
@@ -4687,7 +4694,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B181" s="4" t="s">
         <v>204</v>
       </c>
@@ -4701,7 +4708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B182" s="4" t="s">
         <v>108</v>
       </c>
@@ -4715,7 +4722,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B183" s="4" t="s">
         <v>88</v>
       </c>
@@ -4729,7 +4736,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B184" s="4" t="s">
         <v>205</v>
       </c>
@@ -4743,7 +4750,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B185" s="4" t="s">
         <v>83</v>
       </c>
@@ -4757,7 +4764,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>366</v>
       </c>
@@ -4771,7 +4778,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B188" s="5" t="s">
         <v>379</v>
       </c>
@@ -4788,7 +4795,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B189" t="s">
         <v>62</v>
       </c>
@@ -4802,7 +4809,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B190" t="s">
         <v>230</v>
       </c>
@@ -4816,7 +4823,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B191" t="s">
         <v>367</v>
       </c>
@@ -4830,7 +4837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B192" t="s">
         <v>83</v>
       </c>
@@ -4844,7 +4851,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>369</v>
       </c>
@@ -4858,7 +4865,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B196" t="s">
         <v>96</v>
       </c>
@@ -4875,7 +4882,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B197" t="s">
         <v>62</v>
       </c>
@@ -4889,7 +4896,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B198" s="4" t="s">
         <v>55</v>
       </c>
@@ -4897,7 +4904,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B199" t="s">
         <v>391</v>
       </c>
@@ -4911,7 +4918,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B200" t="s">
         <v>83</v>
       </c>
@@ -4925,7 +4932,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>372</v>
       </c>
@@ -4939,7 +4946,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B203" t="s">
         <v>97</v>
       </c>
@@ -4956,7 +4963,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B204" t="s">
         <v>103</v>
       </c>
@@ -4970,7 +4977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B205" t="s">
         <v>102</v>
       </c>
@@ -4984,7 +4991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B206" t="s">
         <v>83</v>
       </c>
@@ -4998,8 +5005,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>370</v>
       </c>
@@ -5013,7 +5020,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B209" s="4" t="s">
         <v>97</v>
       </c>
@@ -5030,7 +5037,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B210" s="4" t="s">
         <v>96</v>
       </c>
@@ -5047,8 +5054,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>382</v>
       </c>
@@ -5062,7 +5069,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B214" s="5" t="s">
         <v>106</v>
       </c>
@@ -5079,7 +5086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B215" s="5" t="s">
         <v>384</v>
       </c>
@@ -5096,7 +5103,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B216" s="5" t="s">
         <v>65</v>
       </c>
@@ -5110,7 +5117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B217" s="5" t="s">
         <v>110</v>
       </c>
@@ -5124,7 +5131,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B218" s="4" t="s">
         <v>217</v>
       </c>
@@ -5138,7 +5145,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B219" s="5" t="s">
         <v>83</v>
       </c>
@@ -5152,7 +5159,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>373</v>
       </c>
@@ -5166,7 +5173,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B222" s="4" t="s">
         <v>119</v>
       </c>
@@ -5183,7 +5190,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B223" s="4" t="s">
         <v>120</v>
       </c>
@@ -5197,7 +5204,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B224" s="4" t="s">
         <v>135</v>
       </c>
@@ -5211,7 +5218,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B225" s="20" t="s">
         <v>433</v>
       </c>
@@ -5225,7 +5232,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B226" s="4" t="s">
         <v>122</v>
       </c>
@@ -5239,7 +5246,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B227" s="4" t="s">
         <v>125</v>
       </c>
@@ -5253,7 +5260,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B228" s="4" t="s">
         <v>83</v>
       </c>
@@ -5267,7 +5274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5277,7 +5284,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -5291,7 +5298,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B231" s="4" t="s">
         <v>231</v>
       </c>
@@ -5308,7 +5315,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
         <v>383</v>
@@ -5328,7 +5335,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
         <v>83</v>
@@ -5346,7 +5353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="11" t="s">
         <v>381</v>
       </c>
@@ -5360,7 +5367,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>280</v>
@@ -5380,7 +5387,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>62</v>
@@ -5398,7 +5405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>55</v>
@@ -5416,7 +5423,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B239" s="20" t="s">
         <v>231</v>
       </c>
@@ -5430,7 +5437,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B240" s="20" t="s">
         <v>192</v>
       </c>
@@ -5444,7 +5451,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="10"/>
       <c r="B241" s="4" t="s">
         <v>308</v>
@@ -5462,7 +5469,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>83</v>
@@ -5480,7 +5487,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="21" t="s">
         <v>394</v>
       </c>
@@ -5494,7 +5501,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="22"/>
       <c r="B245" s="22" t="s">
         <v>395</v>
@@ -5514,7 +5521,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="22"/>
       <c r="B246" s="22" t="s">
         <v>416</v>
@@ -5534,7 +5541,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>83</v>
@@ -5552,7 +5559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5562,7 +5569,7 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A249" s="21" t="s">
         <v>426</v>
       </c>
@@ -5576,7 +5583,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A250" s="22"/>
       <c r="B250" s="22" t="s">
         <v>427</v>
@@ -5596,7 +5603,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A251" s="22"/>
       <c r="B251" s="22" t="s">
         <v>428</v>
@@ -5616,7 +5623,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A252" s="10"/>
       <c r="B252" s="20" t="s">
         <v>429</v>
@@ -5634,7 +5641,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>83</v>
@@ -5652,7 +5659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="21" t="s">
         <v>403</v>
       </c>
@@ -5666,7 +5673,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B256" t="s">
         <v>402</v>
       </c>
@@ -5683,7 +5690,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B257" t="s">
         <v>404</v>
       </c>
@@ -5697,7 +5704,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>83</v>
@@ -5715,7 +5722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260" s="21" t="s">
         <v>411</v>
       </c>
@@ -5729,7 +5736,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261" s="20"/>
       <c r="B261" s="20" t="s">
         <v>405</v>
@@ -5749,7 +5756,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="20"/>
       <c r="B262" s="20" t="s">
         <v>412</v>
@@ -5767,7 +5774,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>83</v>
@@ -5796,22 +5803,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
   <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
+    <col min="4" max="6" width="7.09765625" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="47.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.69921875" style="10" customWidth="1"/>
     <col min="9" max="14" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5837,7 +5844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -5851,7 +5858,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>224</v>
       </c>
@@ -5868,7 +5875,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>255</v>
@@ -5892,7 +5899,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>225</v>
       </c>
@@ -5906,7 +5913,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>441</v>
@@ -5932,7 +5939,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>443</v>
@@ -5958,7 +5965,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>402</v>
       </c>
@@ -5972,7 +5979,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>405</v>
       </c>
@@ -5986,7 +5993,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>445</v>
@@ -6010,7 +6017,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>131</v>
       </c>
@@ -6024,7 +6031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>228</v>
@@ -6064,7 +6071,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>224</v>
@@ -6088,7 +6095,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>319</v>
@@ -6114,7 +6121,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>119</v>
       </c>
@@ -6128,7 +6135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
@@ -6142,7 +6149,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
         <v>232</v>
       </c>
@@ -6156,7 +6163,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
         <v>233</v>
       </c>
@@ -6170,7 +6177,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
         <v>136</v>
       </c>
@@ -6184,7 +6191,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>257</v>
@@ -6208,7 +6215,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>281</v>
@@ -6232,7 +6239,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>283</v>
@@ -6256,7 +6263,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>446</v>
@@ -6280,7 +6287,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>83</v>
@@ -6304,7 +6311,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>341</v>
       </c>
@@ -6324,7 +6331,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>331</v>
@@ -6350,7 +6357,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
         <v>228</v>
@@ -6374,7 +6381,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>11</v>
@@ -6398,7 +6405,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="20" t="s">
         <v>419</v>
       </c>
@@ -6412,7 +6419,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20" t="s">
         <v>420</v>
       </c>
@@ -6426,7 +6433,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="20" t="s">
         <v>32</v>
       </c>
@@ -6440,7 +6447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="20" t="s">
         <v>446</v>
       </c>
@@ -6454,7 +6461,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>83</v>
@@ -6478,7 +6485,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -6494,7 +6501,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>350</v>
       </c>
@@ -6514,7 +6521,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="5" t="s">
         <v>106</v>
@@ -6540,7 +6547,7 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>228</v>
@@ -6566,7 +6573,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
         <v>65</v>
       </c>
@@ -6580,7 +6587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>110</v>
       </c>
@@ -6594,7 +6601,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>87</v>
@@ -6618,7 +6625,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>219</v>
@@ -6642,7 +6649,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>83</v>
       </c>
@@ -6653,7 +6660,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6669,7 +6676,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>375</v>
       </c>
@@ -6689,7 +6696,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>285</v>
@@ -6715,7 +6722,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>228</v>
@@ -6739,7 +6746,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>287</v>
@@ -6763,7 +6770,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>288</v>
@@ -6787,7 +6794,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>289</v>
@@ -6811,7 +6818,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>290</v>
@@ -6835,7 +6842,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>291</v>
@@ -6859,7 +6866,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>297</v>
@@ -6883,7 +6890,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>298</v>
@@ -6907,7 +6914,7 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>299</v>
@@ -6931,7 +6938,7 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>300</v>
@@ -6955,7 +6962,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>83</v>
@@ -6979,7 +6986,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6995,7 +7002,7 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -7011,7 +7018,7 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7027,7 +7034,7 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
         <v>270</v>
       </c>
@@ -7047,7 +7054,7 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
         <v>275</v>
       </c>
@@ -7064,7 +7071,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>228</v>
@@ -7090,7 +7097,7 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>83</v>
@@ -7114,7 +7121,7 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -7130,7 +7137,7 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="15" t="s">
         <v>352</v>
       </c>
@@ -7150,7 +7157,7 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
         <v>274</v>
@@ -7176,7 +7183,7 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>228</v>
@@ -7200,7 +7207,7 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>32</v>
@@ -7224,7 +7231,7 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>39</v>
@@ -7248,7 +7255,7 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>83</v>
@@ -7272,7 +7279,7 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -7288,7 +7295,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="15" t="s">
         <v>351</v>
       </c>
@@ -7308,7 +7315,7 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
         <v>244</v>
@@ -7334,7 +7341,7 @@
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>228</v>
@@ -7358,7 +7365,7 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>248</v>
@@ -7382,7 +7389,7 @@
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
     </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>231</v>
@@ -7406,7 +7413,7 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>241</v>
@@ -7430,7 +7437,7 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>242</v>
@@ -7454,7 +7461,7 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>83</v>
@@ -7478,7 +7485,7 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -7494,7 +7501,7 @@
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="15" t="s">
         <v>353</v>
       </c>
@@ -7514,7 +7521,7 @@
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
         <v>246</v>
@@ -7540,7 +7547,7 @@
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>228</v>
@@ -7564,7 +7571,7 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>62</v>
@@ -7588,7 +7595,7 @@
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>55</v>
@@ -7612,7 +7619,7 @@
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>231</v>
@@ -7636,7 +7643,7 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>242</v>
@@ -7660,7 +7667,7 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>83</v>
@@ -7684,7 +7691,7 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -7700,7 +7707,7 @@
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="15" t="s">
         <v>354</v>
       </c>
@@ -7720,7 +7727,7 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="s">
         <v>252</v>
@@ -7746,7 +7753,7 @@
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="8" t="s">
         <v>244</v>
@@ -7770,7 +7777,7 @@
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>246</v>
@@ -7794,7 +7801,7 @@
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>231</v>
@@ -7818,7 +7825,7 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>242</v>
@@ -7842,7 +7849,7 @@
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>83</v>
@@ -7866,7 +7873,7 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -7882,7 +7889,7 @@
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="7" t="s">
         <v>376</v>
       </c>
@@ -7902,7 +7909,7 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>160</v>
@@ -7928,7 +7935,7 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>228</v>
@@ -7952,7 +7959,7 @@
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>62</v>
@@ -7976,7 +7983,7 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>55</v>
@@ -8000,7 +8007,7 @@
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
     </row>
-    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>87</v>
@@ -8024,7 +8031,7 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
         <v>219</v>
@@ -8048,7 +8055,7 @@
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
     </row>
-    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>139</v>
@@ -8074,7 +8081,7 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B109" s="5" t="s">
         <v>339</v>
       </c>
@@ -8088,7 +8095,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>83</v>
@@ -8112,7 +8119,7 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -8128,7 +8135,7 @@
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
     </row>
-    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" s="7" t="s">
         <v>437</v>
       </c>
@@ -8148,7 +8155,7 @@
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>438</v>
@@ -8174,7 +8181,7 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>228</v>
@@ -8198,7 +8205,7 @@
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
     </row>
-    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>32</v>
@@ -8222,7 +8229,7 @@
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
     </row>
-    <row r="116" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B116" s="22" t="s">
         <v>393</v>
       </c>
@@ -8239,7 +8246,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>83</v>
@@ -8263,7 +8270,7 @@
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
     </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -8279,7 +8286,7 @@
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
     </row>
-    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="15" t="s">
         <v>356</v>
       </c>
@@ -8299,7 +8306,7 @@
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>160</v>
@@ -8325,7 +8332,7 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
     </row>
-    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>87</v>
@@ -8349,7 +8356,7 @@
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
     </row>
-    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>83</v>
@@ -8373,7 +8380,7 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -8389,7 +8396,7 @@
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
     </row>
-    <row r="124" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" s="7" t="s">
         <v>377</v>
       </c>
@@ -8409,7 +8416,7 @@
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="8"/>
       <c r="B125" s="8" t="s">
         <v>264</v>
@@ -8429,7 +8436,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A126" s="8"/>
       <c r="B126" s="8" t="s">
         <v>228</v>
@@ -8453,7 +8460,7 @@
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B127" s="10" t="s">
         <v>62</v>
       </c>
@@ -8467,7 +8474,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B128" s="10" t="s">
         <v>55</v>
       </c>
@@ -8481,7 +8488,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B129" s="10" t="s">
         <v>139</v>
       </c>
@@ -8498,7 +8505,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A130" s="8"/>
       <c r="B130" s="8" t="s">
         <v>268</v>
@@ -8522,7 +8529,7 @@
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
     </row>
-    <row r="131" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>83</v>
@@ -8546,7 +8553,7 @@
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="16" t="s">
         <v>355</v>
       </c>
@@ -8560,7 +8567,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>91</v>
@@ -8580,7 +8587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>228</v>
@@ -8600,7 +8607,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>230</v>
@@ -8618,7 +8625,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>213</v>
@@ -8636,7 +8643,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>83</v>
@@ -8654,7 +8661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>310</v>
       </c>
@@ -8674,7 +8681,7 @@
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
     </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B142" s="4" t="s">
         <v>313</v>
       </c>
@@ -8697,7 +8704,7 @@
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B143" s="4" t="s">
         <v>228</v>
       </c>
@@ -8720,7 +8727,7 @@
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B144" s="4" t="s">
         <v>231</v>
       </c>
@@ -8740,7 +8747,7 @@
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
     </row>
-    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B145" s="4" t="s">
         <v>315</v>
       </c>
@@ -8760,7 +8767,7 @@
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
     </row>
-    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B146" s="4" t="s">
         <v>317</v>
       </c>
@@ -8780,7 +8787,7 @@
       <c r="M146" s="10"/>
       <c r="N146" s="10"/>
     </row>
-    <row r="147" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B147" s="4" t="s">
         <v>83</v>
       </c>
@@ -8800,7 +8807,7 @@
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
     </row>
-    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A149" s="21" t="s">
         <v>368</v>
       </c>
@@ -8820,7 +8827,7 @@
       <c r="M149" s="8"/>
       <c r="N149" s="8"/>
     </row>
-    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>91</v>
@@ -8846,7 +8853,7 @@
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
     </row>
-    <row r="151" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B151" s="20" t="s">
         <v>228</v>
       </c>
@@ -8869,7 +8876,7 @@
       <c r="M151" s="10"/>
       <c r="N151" s="10"/>
     </row>
-    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>435</v>
@@ -8893,7 +8900,7 @@
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
     </row>
-    <row r="153" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A153" s="20"/>
       <c r="B153" s="20" t="s">
         <v>230</v>
@@ -8917,7 +8924,7 @@
       <c r="M153" s="8"/>
       <c r="N153" s="8"/>
     </row>
-    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>213</v>
@@ -8935,7 +8942,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>145</v>
@@ -8959,7 +8966,7 @@
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="20"/>
       <c r="B156" s="20" t="s">
         <v>83</v>

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E098DA9-CDBC-4D52-AD0C-250726D610B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE01996E-576D-4810-8F57-2354CB848951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="455">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1819,6 +1819,30 @@
   </si>
   <si>
     <t>가치 = 크기 * 희귀도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍량 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature_update_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,7 +1873,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1877,6 +1901,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,7 +1941,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1979,6 +2009,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2298,21 +2331,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
   <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+    <sheetView topLeftCell="A169" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H203" sqref="H203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="86.19921875" customWidth="1"/>
-    <col min="9" max="12" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="86.25" customWidth="1"/>
+    <col min="9" max="12" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2338,7 +2371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2352,7 +2385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2369,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2383,7 +2416,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -2397,7 +2430,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>83</v>
       </c>
@@ -2411,9 +2444,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2427,7 +2460,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2444,7 +2477,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2472,7 +2505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
@@ -2486,7 +2519,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -2500,7 +2533,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
@@ -2514,8 +2547,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
@@ -2529,7 +2562,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2546,7 +2579,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2560,7 +2593,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2574,7 +2607,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2588,7 +2621,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
@@ -2602,7 +2635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>333</v>
       </c>
@@ -2616,7 +2649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>342</v>
       </c>
@@ -2633,7 +2666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>321</v>
       </c>
@@ -2647,7 +2680,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>324</v>
       </c>
@@ -2661,7 +2694,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>325</v>
       </c>
@@ -2675,7 +2708,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>326</v>
       </c>
@@ -2689,21 +2722,21 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="C30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2717,7 +2750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -2731,7 +2764,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>363</v>
       </c>
@@ -2745,7 +2778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2762,7 +2795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2779,7 +2812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2793,7 +2826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2807,7 +2840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -2821,7 +2854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>231</v>
       </c>
@@ -2835,7 +2868,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>172</v>
       </c>
@@ -2849,7 +2882,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
@@ -2863,7 +2896,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>423</v>
       </c>
@@ -2877,7 +2910,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>271</v>
       </c>
@@ -2891,7 +2924,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>329</v>
       </c>
@@ -2905,7 +2938,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2919,8 +2952,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>334</v>
       </c>
@@ -2934,7 +2967,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>343</v>
       </c>
@@ -2951,7 +2984,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -2968,7 +3001,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>342</v>
       </c>
@@ -2982,7 +3015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>344</v>
       </c>
@@ -2996,7 +3029,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
@@ -3010,8 +3043,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -3025,7 +3058,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
         <v>275</v>
       </c>
@@ -3042,7 +3075,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3056,7 +3089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
@@ -3070,7 +3103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
@@ -3084,8 +3117,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3099,7 +3132,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
         <v>278</v>
       </c>
@@ -3116,7 +3149,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>32</v>
       </c>
@@ -3130,7 +3163,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3144,7 +3177,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="20" t="s">
         <v>55</v>
       </c>
@@ -3158,7 +3191,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
@@ -3172,7 +3205,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
@@ -3186,8 +3219,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -3201,7 +3234,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
@@ -3220,7 +3253,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3237,7 +3270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
@@ -3251,8 +3284,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>364</v>
       </c>
@@ -3266,7 +3299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>39</v>
       </c>
@@ -3283,7 +3316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -3300,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -3314,7 +3347,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>34</v>
       </c>
@@ -3328,7 +3361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>49</v>
       </c>
@@ -3342,7 +3375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>50</v>
       </c>
@@ -3356,7 +3389,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>51</v>
       </c>
@@ -3370,7 +3403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>66</v>
       </c>
@@ -3387,7 +3420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>83</v>
       </c>
@@ -3401,7 +3434,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -3415,7 +3448,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="19" t="s">
         <v>393</v>
       </c>
@@ -3434,7 +3467,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
@@ -3448,7 +3481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>53</v>
       </c>
@@ -3463,7 +3496,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>169</v>
       </c>
@@ -3480,7 +3513,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>170</v>
       </c>
@@ -3494,7 +3527,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>387</v>
       </c>
@@ -3508,7 +3541,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="20" t="s">
         <v>231</v>
       </c>
@@ -3522,7 +3555,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="20" t="s">
         <v>92</v>
       </c>
@@ -3536,7 +3569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="20" t="s">
         <v>93</v>
       </c>
@@ -3550,7 +3583,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>83</v>
       </c>
@@ -3564,8 +3597,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>181</v>
       </c>
@@ -3579,7 +3612,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>62</v>
       </c>
@@ -3596,7 +3629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
@@ -3613,7 +3646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="17" t="s">
         <v>358</v>
       </c>
@@ -3627,7 +3660,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
@@ -3641,8 +3674,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -3656,7 +3689,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="5" t="s">
         <v>198</v>
       </c>
@@ -3673,7 +3706,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
@@ -3687,7 +3720,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>55</v>
       </c>
@@ -3701,7 +3734,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>53</v>
       </c>
@@ -3715,7 +3748,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3729,7 +3762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>58</v>
       </c>
@@ -3743,7 +3776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
@@ -3757,7 +3790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="17" t="s">
         <v>63</v>
       </c>
@@ -3771,7 +3804,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -3785,7 +3818,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>217</v>
       </c>
@@ -3799,7 +3832,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>83</v>
       </c>
@@ -3813,8 +3846,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
@@ -3828,7 +3861,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="5" t="s">
         <v>198</v>
       </c>
@@ -3845,7 +3878,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>62</v>
       </c>
@@ -3859,7 +3892,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>53</v>
       </c>
@@ -3873,7 +3906,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
         <v>65</v>
       </c>
@@ -3887,7 +3920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
         <v>58</v>
       </c>
@@ -3901,7 +3934,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
         <v>61</v>
       </c>
@@ -3915,7 +3948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="17" t="s">
         <v>63</v>
       </c>
@@ -3929,7 +3962,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="17" t="s">
         <v>64</v>
       </c>
@@ -3943,7 +3976,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
         <v>217</v>
       </c>
@@ -3957,7 +3990,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>83</v>
       </c>
@@ -3971,8 +4004,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>186</v>
       </c>
@@ -3986,7 +4019,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="5" t="s">
         <v>198</v>
       </c>
@@ -4003,7 +4036,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>62</v>
       </c>
@@ -4017,7 +4050,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>53</v>
       </c>
@@ -4031,7 +4064,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>58</v>
       </c>
@@ -4045,7 +4078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>61</v>
       </c>
@@ -4059,7 +4092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>83</v>
       </c>
@@ -4073,7 +4106,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4083,7 +4116,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>189</v>
       </c>
@@ -4097,7 +4130,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="5" t="s">
         <v>198</v>
       </c>
@@ -4114,7 +4147,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>62</v>
@@ -4132,7 +4165,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>53</v>
@@ -4150,7 +4183,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>51</v>
@@ -4168,7 +4201,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
@@ -4186,8 +4219,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
@@ -4201,7 +4234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="5" t="s">
         <v>198</v>
       </c>
@@ -4218,7 +4251,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>62</v>
       </c>
@@ -4232,7 +4265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>53</v>
       </c>
@@ -4246,7 +4279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>71</v>
       </c>
@@ -4260,7 +4293,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>72</v>
       </c>
@@ -4274,7 +4307,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>65</v>
       </c>
@@ -4288,7 +4321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>217</v>
       </c>
@@ -4302,7 +4335,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
         <v>83</v>
       </c>
@@ -4316,8 +4349,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>365</v>
       </c>
@@ -4331,7 +4364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>75</v>
       </c>
@@ -4348,7 +4381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>77</v>
       </c>
@@ -4365,7 +4398,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>79</v>
       </c>
@@ -4379,7 +4412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>83</v>
       </c>
@@ -4393,7 +4426,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>202</v>
       </c>
@@ -4407,7 +4440,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B160" s="5" t="s">
         <v>198</v>
       </c>
@@ -4424,7 +4457,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B161" s="20" t="s">
         <v>55</v>
       </c>
@@ -4438,7 +4471,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>75</v>
       </c>
@@ -4455,7 +4488,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -4469,7 +4502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
         <v>87</v>
       </c>
@@ -4486,7 +4519,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="5" t="s">
         <v>198</v>
       </c>
@@ -4500,7 +4533,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>55</v>
       </c>
@@ -4514,7 +4547,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
         <v>219</v>
       </c>
@@ -4528,7 +4561,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
       <c r="B169" s="22" t="s">
         <v>395</v>
@@ -4546,7 +4579,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="22"/>
       <c r="B170" s="22" t="s">
         <v>400</v>
@@ -4564,7 +4597,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>231</v>
       </c>
@@ -4578,7 +4611,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>204</v>
       </c>
@@ -4592,7 +4625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>88</v>
       </c>
@@ -4606,7 +4639,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>83</v>
       </c>
@@ -4620,8 +4653,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>208</v>
       </c>
@@ -4635,7 +4668,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B177" s="4" t="s">
         <v>87</v>
       </c>
@@ -4652,7 +4685,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B178" s="5" t="s">
         <v>106</v>
       </c>
@@ -4666,7 +4699,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B179" s="4" t="s">
         <v>219</v>
       </c>
@@ -4680,7 +4713,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="s">
         <v>230</v>
       </c>
@@ -4694,7 +4727,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
         <v>204</v>
       </c>
@@ -4708,7 +4741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="s">
         <v>108</v>
       </c>
@@ -4722,7 +4755,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
         <v>88</v>
       </c>
@@ -4736,7 +4769,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B184" s="4" t="s">
         <v>205</v>
       </c>
@@ -4750,7 +4783,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="s">
         <v>83</v>
       </c>
@@ -4764,7 +4797,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>366</v>
       </c>
@@ -4778,7 +4811,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="5" t="s">
         <v>379</v>
       </c>
@@ -4795,7 +4828,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>62</v>
       </c>
@@ -4809,7 +4842,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>230</v>
       </c>
@@ -4823,7 +4856,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>367</v>
       </c>
@@ -4837,7 +4870,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>83</v>
       </c>
@@ -4851,7 +4884,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>369</v>
       </c>
@@ -4865,7 +4898,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>96</v>
       </c>
@@ -4882,7 +4915,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>62</v>
       </c>
@@ -4896,7 +4929,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
         <v>55</v>
       </c>
@@ -4904,7 +4937,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>391</v>
       </c>
@@ -4918,7 +4951,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>83</v>
       </c>
@@ -4932,7 +4965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>372</v>
       </c>
@@ -4946,7 +4979,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>97</v>
       </c>
@@ -4963,7 +4996,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>103</v>
       </c>
@@ -4977,7 +5010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>102</v>
       </c>
@@ -4991,7 +5024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>83</v>
       </c>
@@ -5005,8 +5038,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>370</v>
       </c>
@@ -5020,7 +5053,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
         <v>97</v>
       </c>
@@ -5037,7 +5070,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
         <v>96</v>
       </c>
@@ -5054,8 +5087,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>382</v>
       </c>
@@ -5069,7 +5102,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B214" s="5" t="s">
         <v>106</v>
       </c>
@@ -5086,7 +5119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B215" s="5" t="s">
         <v>384</v>
       </c>
@@ -5103,7 +5136,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B216" s="5" t="s">
         <v>65</v>
       </c>
@@ -5117,7 +5150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B217" s="5" t="s">
         <v>110</v>
       </c>
@@ -5131,7 +5164,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
         <v>217</v>
       </c>
@@ -5145,7 +5178,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B219" s="5" t="s">
         <v>83</v>
       </c>
@@ -5159,7 +5192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>373</v>
       </c>
@@ -5173,7 +5206,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
         <v>119</v>
       </c>
@@ -5190,7 +5223,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B223" s="4" t="s">
         <v>120</v>
       </c>
@@ -5204,7 +5237,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B224" s="4" t="s">
         <v>135</v>
       </c>
@@ -5218,7 +5251,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B225" s="20" t="s">
         <v>433</v>
       </c>
@@ -5232,7 +5265,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B226" s="4" t="s">
         <v>122</v>
       </c>
@@ -5246,7 +5279,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
         <v>125</v>
       </c>
@@ -5260,7 +5293,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
         <v>83</v>
       </c>
@@ -5274,7 +5307,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5284,7 +5317,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -5298,7 +5331,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
         <v>231</v>
       </c>
@@ -5315,7 +5348,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
         <v>383</v>
@@ -5335,7 +5368,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
         <v>83</v>
@@ -5353,7 +5386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>381</v>
       </c>
@@ -5367,7 +5400,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>280</v>
@@ -5387,7 +5420,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>62</v>
@@ -5405,7 +5438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>55</v>
@@ -5423,7 +5456,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B239" s="20" t="s">
         <v>231</v>
       </c>
@@ -5437,7 +5470,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B240" s="20" t="s">
         <v>192</v>
       </c>
@@ -5451,7 +5484,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="4" t="s">
         <v>308</v>
@@ -5469,7 +5502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>83</v>
@@ -5487,7 +5520,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="21" t="s">
         <v>394</v>
       </c>
@@ -5501,7 +5534,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="22"/>
       <c r="B245" s="22" t="s">
         <v>395</v>
@@ -5521,7 +5554,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="22"/>
       <c r="B246" s="22" t="s">
         <v>416</v>
@@ -5541,7 +5574,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>83</v>
@@ -5559,7 +5592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5569,7 +5602,7 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="21" t="s">
         <v>426</v>
       </c>
@@ -5583,7 +5616,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="22"/>
       <c r="B250" s="22" t="s">
         <v>427</v>
@@ -5603,7 +5636,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="22"/>
       <c r="B251" s="22" t="s">
         <v>428</v>
@@ -5623,7 +5656,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="20" t="s">
         <v>429</v>
@@ -5641,7 +5674,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>83</v>
@@ -5659,7 +5692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
         <v>403</v>
       </c>
@@ -5673,7 +5706,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>402</v>
       </c>
@@ -5690,7 +5723,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>404</v>
       </c>
@@ -5704,7 +5737,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>83</v>
@@ -5722,7 +5755,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="21" t="s">
         <v>411</v>
       </c>
@@ -5736,7 +5769,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="20"/>
       <c r="B261" s="20" t="s">
         <v>405</v>
@@ -5756,7 +5789,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="20"/>
       <c r="B262" s="20" t="s">
         <v>412</v>
@@ -5774,7 +5807,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>83</v>
@@ -5801,24 +5834,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="7.09765625" style="10" customWidth="1"/>
+    <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="47.69921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.75" style="10" customWidth="1"/>
     <col min="9" max="14" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5844,7 +5877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -5858,7 +5891,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>224</v>
       </c>
@@ -5875,7 +5908,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>255</v>
@@ -5899,7 +5932,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>225</v>
       </c>
@@ -5913,7 +5946,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>441</v>
@@ -5939,7 +5972,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>443</v>
@@ -5965,7 +5998,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>402</v>
       </c>
@@ -5979,7 +6012,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>405</v>
       </c>
@@ -5993,7 +6026,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>445</v>
@@ -6017,7 +6050,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>131</v>
       </c>
@@ -6031,7 +6064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
@@ -6045,7 +6078,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>228</v>
@@ -6071,7 +6104,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>224</v>
@@ -6095,7 +6128,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>319</v>
@@ -6121,7 +6154,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>119</v>
       </c>
@@ -6135,7 +6168,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
@@ -6149,7 +6182,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>232</v>
       </c>
@@ -6163,7 +6196,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>233</v>
       </c>
@@ -6177,7 +6210,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>136</v>
       </c>
@@ -6191,7 +6224,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>257</v>
@@ -6215,7 +6248,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>281</v>
@@ -6239,7 +6272,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>283</v>
@@ -6263,7 +6296,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>446</v>
@@ -6287,7 +6320,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>83</v>
@@ -6311,7 +6344,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>341</v>
       </c>
@@ -6331,7 +6364,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>331</v>
@@ -6357,7 +6390,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
         <v>228</v>
@@ -6381,7 +6414,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>11</v>
@@ -6405,7 +6438,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
         <v>419</v>
       </c>
@@ -6419,7 +6452,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
         <v>420</v>
       </c>
@@ -6433,7 +6466,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
         <v>32</v>
       </c>
@@ -6447,9 +6480,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>361</v>
@@ -6458,61 +6491,53 @@
         <v>26</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
-        <v>83</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="20" t="s">
+        <v>453</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10" t="s">
+      <c r="E36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -6521,50 +6546,34 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10" t="s">
-        <v>240</v>
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -6573,102 +6582,127 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="4" t="s">
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="C44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10" t="s">
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
+      <c r="C45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10" t="s">
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10" t="s">
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
+      <c r="C46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -6676,45 +6710,26 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10" t="s">
-        <v>286</v>
-      </c>
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -6722,22 +6737,18 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10" t="s">
-        <v>240</v>
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -6746,10 +6757,10 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>24</v>
@@ -6758,10 +6769,12 @@
       <c r="E50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -6770,10 +6783,10 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>24</v>
@@ -6785,7 +6798,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -6794,10 +6807,10 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>24</v>
@@ -6809,7 +6822,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -6818,10 +6831,10 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>24</v>
@@ -6833,7 +6846,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -6842,10 +6855,10 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>24</v>
@@ -6857,7 +6870,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -6866,22 +6879,22 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -6890,22 +6903,22 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -6914,10 +6927,10 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>24</v>
@@ -6929,7 +6942,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -6938,10 +6951,10 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>24</v>
@@ -6953,7 +6966,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -6962,22 +6975,22 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -6986,15 +6999,23 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
+    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10" t="s">
+        <v>304</v>
+      </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
@@ -7002,15 +7023,23 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -7018,7 +7047,7 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7034,19 +7063,15 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7" t="s">
-        <v>357</v>
-      </c>
+    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -7054,41 +7079,34 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10" t="s">
-        <v>240</v>
+    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+    </row>
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
@@ -7097,39 +7115,42 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-    </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
+      <c r="B67" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+      <c r="H67" s="10" t="s">
+        <v>240</v>
+      </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -7137,18 +7158,22 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7" t="s">
-        <v>273</v>
+    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
@@ -7157,48 +7182,34 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-    </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10" t="s">
-        <v>240</v>
+    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
@@ -7207,34 +7218,36 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10" t="s">
-        <v>32</v>
+    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-    </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F71" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>24</v>
@@ -7246,7 +7259,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10" t="s">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
@@ -7255,13 +7268,13 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10" t="s">
@@ -7270,7 +7283,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
@@ -7279,15 +7292,23 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
+      <c r="B74" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
+      <c r="E74" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="H74" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
@@ -7295,18 +7316,22 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7" t="s">
-        <v>237</v>
+    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -7315,48 +7340,34 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-    </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10" t="s">
-        <v>239</v>
+    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -7365,34 +7376,36 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-    </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>24</v>
@@ -7404,7 +7417,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
@@ -7413,10 +7426,10 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>24</v>
@@ -7428,7 +7441,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
@@ -7437,10 +7450,10 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>24</v>
@@ -7452,7 +7465,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
@@ -7461,13 +7474,13 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10" t="s">
@@ -7476,7 +7489,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10" t="s">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
@@ -7485,15 +7498,23 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
+      <c r="B83" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
+      <c r="E83" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
+      <c r="H83" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
@@ -7501,18 +7522,22 @@
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7" t="s">
-        <v>237</v>
+    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
@@ -7521,48 +7546,34 @@
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I85" s="8"/>
+    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10" t="s">
-        <v>239</v>
+    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
@@ -7571,34 +7582,36 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="I87" s="10"/>
+    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I87" s="8"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>24</v>
@@ -7610,7 +7623,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
@@ -7619,10 +7632,10 @@
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>24</v>
@@ -7634,7 +7647,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
@@ -7643,10 +7656,10 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>24</v>
@@ -7658,7 +7671,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
@@ -7667,13 +7680,13 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10" t="s">
@@ -7682,7 +7695,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
@@ -7691,15 +7704,23 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
+      <c r="B92" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
+      <c r="E92" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
+      <c r="H92" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -7707,18 +7728,22 @@
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7" t="s">
-        <v>237</v>
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
@@ -7727,25 +7752,15 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8" t="s">
-        <v>251</v>
-      </c>
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -7753,22 +7768,18 @@
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="10"/>
-      <c r="B95" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="8" t="s">
-        <v>254</v>
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
@@ -7777,22 +7788,24 @@
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
+    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" s="8"/>
       <c r="H96" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
@@ -7801,10 +7814,10 @@
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
-      <c r="B97" s="10" t="s">
-        <v>231</v>
+      <c r="B97" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>24</v>
@@ -7815,8 +7828,8 @@
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
-      <c r="H97" s="10" t="s">
-        <v>221</v>
+      <c r="H97" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
@@ -7825,10 +7838,10 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>24</v>
@@ -7839,8 +7852,8 @@
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="10" t="s">
-        <v>245</v>
+      <c r="H98" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
@@ -7849,13 +7862,13 @@
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="10" t="s">
@@ -7864,7 +7877,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
@@ -7873,15 +7886,23 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
+      <c r="B100" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
+      <c r="E100" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
+      <c r="H100" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -7889,18 +7910,22 @@
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7" t="s">
-        <v>262</v>
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -7909,25 +7934,15 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
-      <c r="B102" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
       <c r="D102" s="10"/>
-      <c r="E102" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
@@ -7935,22 +7950,18 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10" t="s">
-        <v>115</v>
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
@@ -7959,10 +7970,10 @@
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>24</v>
@@ -7971,10 +7982,12 @@
       <c r="E104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F104" s="10"/>
+      <c r="F104" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G104" s="10"/>
       <c r="H104" s="10" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -7983,10 +7996,10 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>24</v>
@@ -7998,7 +8011,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10" t="s">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
@@ -8007,22 +8020,22 @@
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
     </row>
-    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -8031,22 +8044,22 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
@@ -8055,24 +8068,22 @@
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
     </row>
-    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F108" s="10"/>
-      <c r="G108" s="10">
-        <v>1</v>
-      </c>
+      <c r="G108" s="10"/>
       <c r="H108" s="10" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
@@ -8081,36 +8092,48 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+    </row>
+    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
+      <c r="G110" s="10">
+        <v>1</v>
+      </c>
       <c r="H110" s="10" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
@@ -8119,34 +8142,36 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="10"/>
-    </row>
-    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7" t="s">
-        <v>439</v>
+    <row r="111" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
@@ -8155,25 +8180,15 @@
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
-      <c r="B113" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
       <c r="D113" s="10"/>
-      <c r="E113" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
       <c r="G113" s="10"/>
-      <c r="H113" s="10" t="s">
-        <v>440</v>
-      </c>
+      <c r="H113" s="10"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
@@ -8181,22 +8196,18 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10" t="s">
-        <v>115</v>
+    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
@@ -8205,10 +8216,10 @@
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
     </row>
-    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
-        <v>32</v>
+        <v>438</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>24</v>
@@ -8217,10 +8228,12 @@
       <c r="E115" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F115" s="10"/>
+      <c r="F115" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G115" s="10"/>
       <c r="H115" s="10" t="s">
-        <v>52</v>
+        <v>440</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
@@ -8229,30 +8242,37 @@
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
     </row>
-    <row r="116" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B116" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+    </row>
+    <row r="117" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D117" s="10"/>
       <c r="E117" s="10" t="s">
@@ -8261,7 +8281,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
@@ -8270,34 +8290,39 @@
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
     </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
-    </row>
-    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7" t="s">
-        <v>306</v>
+    <row r="118" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
@@ -8306,25 +8331,15 @@
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
-      <c r="B120" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
       <c r="D120" s="10"/>
-      <c r="E120" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H120" s="10"/>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
@@ -8332,22 +8347,18 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
     </row>
-    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10" t="s">
-        <v>261</v>
+    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
@@ -8356,22 +8367,24 @@
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
     </row>
-    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D122" s="10"/>
       <c r="E122" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F122" s="10"/>
+      <c r="F122" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G122" s="10"/>
       <c r="H122" s="10" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
@@ -8380,15 +8393,23 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
+      <c r="B123" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
+      <c r="E123" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
+      <c r="H123" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
@@ -8396,18 +8417,22 @@
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
     </row>
-    <row r="124" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7" t="s">
-        <v>263</v>
+    <row r="124" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
@@ -8416,201 +8441,197 @@
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8" t="s">
+    <row r="125" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+    </row>
+    <row r="126" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F125" s="10" t="s">
+      <c r="C127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8" t="s">
+      <c r="G127" s="8"/>
+      <c r="H127" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8" t="s">
+    <row r="128" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8" t="s">
+      <c r="C128" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B127" s="10" t="s">
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B129" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H127" s="10" t="s">
+      <c r="C129" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B128" s="10" t="s">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H128" s="10" t="s">
+      <c r="C130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B129" s="10" t="s">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B131" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G129" s="10">
+      <c r="C131" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" s="10">
         <v>1</v>
       </c>
-      <c r="H129" s="10" t="s">
+      <c r="H131" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8" t="s">
+    <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8" t="s">
+      <c r="C132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
-    </row>
-    <row r="131" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10" t="s">
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+    </row>
+    <row r="133" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10" t="s">
+      <c r="D133" s="10"/>
+      <c r="E133" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A134" s="16" t="s">
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="3" t="s">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" s="4"/>
-      <c r="H136" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>24</v>
@@ -8619,16 +8640,18 @@
       <c r="E137" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F137" s="4"/>
+      <c r="F137" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>24</v>
@@ -8637,19 +8660,21 @@
       <c r="E138" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F138" s="4"/>
+      <c r="F138" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H138" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
@@ -8658,67 +8683,57 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="2" t="s">
+    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="3" t="s">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-    </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B142" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
-    </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B143" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
@@ -8727,9 +8742,9 @@
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>24</v>
@@ -8737,8 +8752,11 @@
       <c r="E144" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F144" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H144" s="4" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
@@ -8747,9 +8765,9 @@
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
     </row>
-    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
-        <v>315</v>
+        <v>228</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>24</v>
@@ -8757,8 +8775,11 @@
       <c r="E145" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H145" s="4" t="s">
-        <v>316</v>
+      <c r="F145" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
@@ -8767,9 +8788,9 @@
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
     </row>
-    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
-        <v>317</v>
+        <v>231</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>24</v>
@@ -8778,7 +8799,7 @@
         <v>30</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
@@ -8787,18 +8808,18 @@
       <c r="M146" s="10"/>
       <c r="N146" s="10"/>
     </row>
-    <row r="147" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
-        <v>83</v>
+        <v>315</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
@@ -8807,79 +8828,70 @@
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
     </row>
-    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="21" t="s">
+    <row r="148" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="10"/>
+    </row>
+    <row r="149" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="10"/>
+      <c r="N149" s="10"/>
+    </row>
+    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="3" t="s">
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
-      <c r="N149" s="8"/>
-    </row>
-    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="20"/>
-      <c r="B150" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F150" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
-      <c r="L150" s="8"/>
-      <c r="M150" s="8"/>
-      <c r="N150" s="8"/>
-    </row>
-    <row r="151" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B151" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E151" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F151" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H151" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="10"/>
-      <c r="M151" s="10"/>
-      <c r="N151" s="10"/>
-    </row>
-    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+    </row>
+    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>435</v>
+        <v>91</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>24</v>
@@ -8888,10 +8900,12 @@
       <c r="E152" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F152" s="20"/>
+      <c r="F152" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="G152" s="20"/>
       <c r="H152" s="20" t="s">
-        <v>436</v>
+        <v>90</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
@@ -8900,34 +8914,33 @@
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
     </row>
-    <row r="153" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="20"/>
+    <row r="153" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D153" s="20"/>
       <c r="E153" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
-    </row>
-    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F153" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+    </row>
+    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
-        <v>213</v>
+        <v>435</v>
       </c>
       <c r="C154" s="20" t="s">
         <v>24</v>
@@ -8939,13 +8952,19 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+    </row>
+    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="C155" s="20" t="s">
         <v>24</v>
@@ -8957,7 +8976,7 @@
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
@@ -8966,13 +8985,13 @@
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="20"/>
       <c r="B156" s="20" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="D156" s="20"/>
       <c r="E156" s="20" t="s">
@@ -8981,6 +9000,48 @@
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="20"/>
+      <c r="B157" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20" t="s">
         <v>84</v>
       </c>
     </row>

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE01996E-576D-4810-8F57-2354CB848951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617956F3-6390-40CE-98BF-4D4C339DEED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="458">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1843,6 +1843,18 @@
   </si>
   <si>
     <t>temperature_update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터별 달성한 퀘스트 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_cdoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_quest_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1873,7 +1885,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1910,6 +1922,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1941,7 +1959,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2012,6 +2030,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2331,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
   <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H203" sqref="H203"/>
+    <sheetView topLeftCell="A196" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208:XFD210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5834,15 +5858,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
     <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
@@ -8798,6 +8822,9 @@
       <c r="E146" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F146" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="H146" s="4" t="s">
         <v>221</v>
       </c>
@@ -8828,25 +8855,25 @@
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
     </row>
-    <row r="148" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="4" t="s">
+    <row r="148" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H148" s="4" t="s">
+      <c r="C148" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H148" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
-      <c r="N148" s="10"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
+      <c r="K148" s="25"/>
+      <c r="L148" s="25"/>
+      <c r="M148" s="25"/>
+      <c r="N148" s="25"/>
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
@@ -9045,6 +9072,68 @@
         <v>84</v>
       </c>
     </row>
+    <row r="160" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F161" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H161" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F162" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="E163" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617956F3-6390-40CE-98BF-4D4C339DEED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE2348D-E751-465E-B311-2D64DAF9ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="459">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1855,6 +1855,10 @@
   </si>
   <si>
     <t>user_quest_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드별 기능 상승, 증가 확률 (1강, 2강, 3강 각각 확률 다름?), 내구도 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2355,21 +2359,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
   <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208:XFD210"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="86.25" customWidth="1"/>
-    <col min="9" max="12" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="4" max="7" width="4.59765625" customWidth="1"/>
+    <col min="8" max="8" width="86.19921875" customWidth="1"/>
+    <col min="9" max="12" width="7.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>83</v>
       </c>
@@ -2468,9 +2472,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2501,7 +2505,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
@@ -2543,7 +2547,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -2557,7 +2561,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
@@ -2571,8 +2575,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
@@ -2586,7 +2590,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2617,7 +2621,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2631,7 +2635,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>333</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>342</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>321</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>324</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>325</v>
       </c>
@@ -2732,7 +2736,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>326</v>
       </c>
@@ -2746,7 +2750,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="23" t="s">
         <v>176</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>363</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2819,7 +2823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2850,7 +2854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2864,7 +2868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
         <v>231</v>
       </c>
@@ -2892,7 +2896,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
         <v>172</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>423</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="4" t="s">
         <v>271</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>329</v>
       </c>
@@ -2962,7 +2966,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2976,8 +2980,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>334</v>
       </c>
@@ -2991,7 +2995,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="5" t="s">
         <v>343</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -3025,7 +3029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
         <v>342</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
         <v>344</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
@@ -3067,8 +3071,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -3082,7 +3086,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
         <v>275</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
@@ -3127,7 +3131,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
@@ -3141,8 +3145,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3156,7 +3160,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="5" t="s">
         <v>278</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
         <v>32</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" s="20" t="s">
         <v>55</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
@@ -3229,7 +3233,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
@@ -3243,8 +3247,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -3258,7 +3262,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
@@ -3277,7 +3281,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3294,7 +3298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
@@ -3308,8 +3312,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>364</v>
       </c>
@@ -3323,7 +3327,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>39</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -3357,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -3371,7 +3375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>34</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>49</v>
       </c>
@@ -3399,7 +3403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>50</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>51</v>
       </c>
@@ -3427,7 +3431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>66</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>83</v>
       </c>
@@ -3458,7 +3462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="19" t="s">
         <v>393</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
@@ -3505,7 +3509,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B88" s="4" t="s">
         <v>53</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>169</v>
       </c>
@@ -3537,7 +3541,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>170</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" s="4" t="s">
         <v>387</v>
       </c>
@@ -3565,7 +3569,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B92" s="20" t="s">
         <v>231</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B93" s="20" t="s">
         <v>92</v>
       </c>
@@ -3593,7 +3597,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="20" t="s">
         <v>93</v>
       </c>
@@ -3607,7 +3611,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>83</v>
       </c>
@@ -3621,8 +3625,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>181</v>
       </c>
@@ -3636,7 +3640,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B98" s="4" t="s">
         <v>62</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
@@ -3670,7 +3674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" s="17" t="s">
         <v>358</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
@@ -3698,8 +3702,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -3713,7 +3717,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="5" t="s">
         <v>198</v>
       </c>
@@ -3730,7 +3734,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B106" s="4" t="s">
         <v>55</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B107" s="4" t="s">
         <v>53</v>
       </c>
@@ -3772,7 +3776,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3786,7 +3790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B109" s="4" t="s">
         <v>58</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
@@ -3814,7 +3818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="17" t="s">
         <v>63</v>
       </c>
@@ -3828,7 +3832,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -3842,7 +3846,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B113" s="4" t="s">
         <v>217</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" s="4" t="s">
         <v>83</v>
       </c>
@@ -3870,8 +3874,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
@@ -3885,7 +3889,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B117" s="5" t="s">
         <v>198</v>
       </c>
@@ -3902,7 +3906,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B118" s="4" t="s">
         <v>62</v>
       </c>
@@ -3916,7 +3920,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B119" s="4" t="s">
         <v>53</v>
       </c>
@@ -3930,7 +3934,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B120" s="4" t="s">
         <v>65</v>
       </c>
@@ -3944,7 +3948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B121" s="4" t="s">
         <v>58</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B122" s="4" t="s">
         <v>61</v>
       </c>
@@ -3972,7 +3976,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B123" s="17" t="s">
         <v>63</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B124" s="17" t="s">
         <v>64</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B125" s="4" t="s">
         <v>217</v>
       </c>
@@ -4014,7 +4018,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B126" s="4" t="s">
         <v>83</v>
       </c>
@@ -4028,8 +4032,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>186</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B129" s="5" t="s">
         <v>198</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B130" s="4" t="s">
         <v>62</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B131" s="4" t="s">
         <v>53</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B132" s="4" t="s">
         <v>58</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B133" s="4" t="s">
         <v>61</v>
       </c>
@@ -4116,7 +4120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B134" s="4" t="s">
         <v>83</v>
       </c>
@@ -4130,7 +4134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4140,7 +4144,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>189</v>
       </c>
@@ -4154,7 +4158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B137" s="5" t="s">
         <v>198</v>
       </c>
@@ -4171,7 +4175,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>62</v>
@@ -4189,7 +4193,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>53</v>
@@ -4207,7 +4211,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>51</v>
@@ -4225,7 +4229,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
@@ -4243,8 +4247,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
@@ -4258,7 +4262,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B144" s="5" t="s">
         <v>198</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B145" s="4" t="s">
         <v>62</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B146" s="4" t="s">
         <v>53</v>
       </c>
@@ -4303,7 +4307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B147" s="4" t="s">
         <v>71</v>
       </c>
@@ -4317,7 +4321,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B148" s="4" t="s">
         <v>72</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B149" s="4" t="s">
         <v>65</v>
       </c>
@@ -4345,7 +4349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B150" s="4" t="s">
         <v>217</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B151" s="4" t="s">
         <v>83</v>
       </c>
@@ -4373,8 +4377,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>365</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>75</v>
       </c>
@@ -4405,7 +4409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
         <v>77</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B156" t="s">
         <v>79</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B157" t="s">
         <v>83</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>202</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B160" s="5" t="s">
         <v>198</v>
       </c>
@@ -4481,7 +4485,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B161" s="20" t="s">
         <v>55</v>
       </c>
@@ -4495,7 +4499,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B162" t="s">
         <v>75</v>
       </c>
@@ -4512,7 +4516,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B165" s="4" t="s">
         <v>87</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B166" s="5" t="s">
         <v>198</v>
       </c>
@@ -4557,7 +4561,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B167" t="s">
         <v>55</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B168" s="4" t="s">
         <v>219</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A169" s="22"/>
       <c r="B169" s="22" t="s">
         <v>395</v>
@@ -4603,7 +4607,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A170" s="22"/>
       <c r="B170" s="22" t="s">
         <v>400</v>
@@ -4621,7 +4625,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B171" t="s">
         <v>231</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B172" t="s">
         <v>204</v>
       </c>
@@ -4649,7 +4653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
         <v>88</v>
       </c>
@@ -4660,10 +4664,10 @@
         <v>30</v>
       </c>
       <c r="H173" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B174" t="s">
         <v>83</v>
       </c>
@@ -4677,8 +4681,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>208</v>
       </c>
@@ -4692,7 +4696,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B177" s="4" t="s">
         <v>87</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B178" s="5" t="s">
         <v>106</v>
       </c>
@@ -4723,7 +4727,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B179" s="4" t="s">
         <v>219</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B180" s="4" t="s">
         <v>230</v>
       </c>
@@ -4751,7 +4755,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B181" s="4" t="s">
         <v>204</v>
       </c>
@@ -4765,7 +4769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B182" s="4" t="s">
         <v>108</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B183" s="4" t="s">
         <v>88</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B184" s="4" t="s">
         <v>205</v>
       </c>
@@ -4807,7 +4811,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B185" s="4" t="s">
         <v>83</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>366</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B188" s="5" t="s">
         <v>379</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B189" t="s">
         <v>62</v>
       </c>
@@ -4866,7 +4870,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B190" t="s">
         <v>230</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B191" t="s">
         <v>367</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B192" t="s">
         <v>83</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>369</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B196" t="s">
         <v>96</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B197" t="s">
         <v>62</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B198" s="4" t="s">
         <v>55</v>
       </c>
@@ -4961,7 +4965,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B199" t="s">
         <v>391</v>
       </c>
@@ -4975,7 +4979,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B200" t="s">
         <v>83</v>
       </c>
@@ -4989,7 +4993,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>372</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B203" t="s">
         <v>97</v>
       </c>
@@ -5020,7 +5024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B204" t="s">
         <v>103</v>
       </c>
@@ -5034,7 +5038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B205" t="s">
         <v>102</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B206" t="s">
         <v>83</v>
       </c>
@@ -5062,8 +5066,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>370</v>
       </c>
@@ -5077,7 +5081,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B209" s="4" t="s">
         <v>97</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B210" s="4" t="s">
         <v>96</v>
       </c>
@@ -5111,8 +5115,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>382</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B214" s="5" t="s">
         <v>106</v>
       </c>
@@ -5143,7 +5147,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B215" s="5" t="s">
         <v>384</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B216" s="5" t="s">
         <v>65</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B217" s="5" t="s">
         <v>110</v>
       </c>
@@ -5188,7 +5192,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B218" s="4" t="s">
         <v>217</v>
       </c>
@@ -5202,7 +5206,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B219" s="5" t="s">
         <v>83</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>373</v>
       </c>
@@ -5230,7 +5234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B222" s="4" t="s">
         <v>119</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B223" s="4" t="s">
         <v>120</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B224" s="4" t="s">
         <v>135</v>
       </c>
@@ -5275,7 +5279,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B225" s="20" t="s">
         <v>433</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B226" s="4" t="s">
         <v>122</v>
       </c>
@@ -5303,7 +5307,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B227" s="4" t="s">
         <v>125</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B228" s="4" t="s">
         <v>83</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5341,7 +5345,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -5355,7 +5359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B231" s="4" t="s">
         <v>231</v>
       </c>
@@ -5372,7 +5376,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
         <v>383</v>
@@ -5392,7 +5396,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
         <v>83</v>
@@ -5410,7 +5414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="11" t="s">
         <v>381</v>
       </c>
@@ -5424,7 +5428,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>280</v>
@@ -5444,7 +5448,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>62</v>
@@ -5462,7 +5466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>55</v>
@@ -5480,7 +5484,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B239" s="20" t="s">
         <v>231</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B240" s="20" t="s">
         <v>192</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="10"/>
       <c r="B241" s="4" t="s">
         <v>308</v>
@@ -5526,7 +5530,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>83</v>
@@ -5544,7 +5548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="21" t="s">
         <v>394</v>
       </c>
@@ -5558,7 +5562,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="22"/>
       <c r="B245" s="22" t="s">
         <v>395</v>
@@ -5578,7 +5582,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="22"/>
       <c r="B246" s="22" t="s">
         <v>416</v>
@@ -5598,7 +5602,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>83</v>
@@ -5616,7 +5620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5626,7 +5630,7 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A249" s="21" t="s">
         <v>426</v>
       </c>
@@ -5640,7 +5644,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A250" s="22"/>
       <c r="B250" s="22" t="s">
         <v>427</v>
@@ -5660,7 +5664,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A251" s="22"/>
       <c r="B251" s="22" t="s">
         <v>428</v>
@@ -5680,7 +5684,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A252" s="10"/>
       <c r="B252" s="20" t="s">
         <v>429</v>
@@ -5698,7 +5702,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>83</v>
@@ -5716,7 +5720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="21" t="s">
         <v>403</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B256" t="s">
         <v>402</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B257" t="s">
         <v>404</v>
       </c>
@@ -5761,7 +5765,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>83</v>
@@ -5779,7 +5783,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260" s="21" t="s">
         <v>411</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261" s="20"/>
       <c r="B261" s="20" t="s">
         <v>405</v>
@@ -5813,7 +5817,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="20"/>
       <c r="B262" s="20" t="s">
         <v>412</v>
@@ -5831,7 +5835,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>83</v>
@@ -5860,22 +5864,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
   <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
+    <col min="4" max="6" width="7.09765625" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="47.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.69921875" style="10" customWidth="1"/>
     <col min="9" max="14" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5901,7 +5905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -5915,7 +5919,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>224</v>
       </c>
@@ -5932,7 +5936,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>255</v>
@@ -5956,7 +5960,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>225</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>441</v>
@@ -5996,7 +6000,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>443</v>
@@ -6022,7 +6026,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>402</v>
       </c>
@@ -6036,7 +6040,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>405</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>445</v>
@@ -6074,7 +6078,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>131</v>
       </c>
@@ -6088,7 +6092,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
@@ -6102,7 +6106,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>228</v>
@@ -6128,7 +6132,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>224</v>
@@ -6152,7 +6156,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>319</v>
@@ -6178,7 +6182,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>119</v>
       </c>
@@ -6192,7 +6196,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
         <v>232</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
         <v>233</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
         <v>136</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>257</v>
@@ -6272,7 +6276,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>281</v>
@@ -6296,7 +6300,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>283</v>
@@ -6320,7 +6324,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>446</v>
@@ -6344,7 +6348,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>83</v>
@@ -6368,7 +6372,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>341</v>
       </c>
@@ -6388,7 +6392,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>331</v>
@@ -6414,7 +6418,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
         <v>228</v>
@@ -6438,7 +6442,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>11</v>
@@ -6462,7 +6466,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="20" t="s">
         <v>419</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20" t="s">
         <v>420</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="20" t="s">
         <v>32</v>
       </c>
@@ -6504,7 +6508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="20" t="s">
         <v>452</v>
       </c>
@@ -6518,7 +6522,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="20" t="s">
         <v>453</v>
       </c>
@@ -6532,7 +6536,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="20" t="s">
         <v>454</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>83</v>
@@ -6570,7 +6574,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -6586,7 +6590,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
         <v>350</v>
       </c>
@@ -6606,7 +6610,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="5" t="s">
         <v>106</v>
@@ -6632,7 +6636,7 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>228</v>
@@ -6658,7 +6662,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>65</v>
       </c>
@@ -6672,7 +6676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="4" t="s">
         <v>110</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>87</v>
@@ -6710,7 +6714,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>219</v>
@@ -6734,7 +6738,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="4" t="s">
         <v>83</v>
       </c>
@@ -6745,7 +6749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6761,7 +6765,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
         <v>375</v>
       </c>
@@ -6781,7 +6785,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>285</v>
@@ -6807,7 +6811,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>228</v>
@@ -6831,7 +6835,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>287</v>
@@ -6855,7 +6859,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>288</v>
@@ -6879,7 +6883,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>289</v>
@@ -6903,7 +6907,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>290</v>
@@ -6927,7 +6931,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>291</v>
@@ -6951,7 +6955,7 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>297</v>
@@ -6975,7 +6979,7 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>298</v>
@@ -6999,7 +7003,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>299</v>
@@ -7023,7 +7027,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>300</v>
@@ -7047,7 +7051,7 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>83</v>
@@ -7071,7 +7075,7 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7087,7 +7091,7 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -7103,7 +7107,7 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -7119,7 +7123,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
         <v>270</v>
       </c>
@@ -7139,7 +7143,7 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="5" t="s">
         <v>275</v>
       </c>
@@ -7156,7 +7160,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>228</v>
@@ -7182,7 +7186,7 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>83</v>
@@ -7206,7 +7210,7 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -7222,7 +7226,7 @@
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
         <v>352</v>
       </c>
@@ -7242,7 +7246,7 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>274</v>
@@ -7268,7 +7272,7 @@
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>228</v>
@@ -7292,7 +7296,7 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>32</v>
@@ -7316,7 +7320,7 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>39</v>
@@ -7340,7 +7344,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>83</v>
@@ -7364,7 +7368,7 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -7380,7 +7384,7 @@
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="15" t="s">
         <v>351</v>
       </c>
@@ -7400,7 +7404,7 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>244</v>
@@ -7426,7 +7430,7 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>228</v>
@@ -7450,7 +7454,7 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>248</v>
@@ -7474,7 +7478,7 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>231</v>
@@ -7498,7 +7502,7 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>241</v>
@@ -7522,7 +7526,7 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>242</v>
@@ -7546,7 +7550,7 @@
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>83</v>
@@ -7570,7 +7574,7 @@
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -7586,7 +7590,7 @@
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="15" t="s">
         <v>353</v>
       </c>
@@ -7606,7 +7610,7 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
         <v>246</v>
@@ -7632,7 +7636,7 @@
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>228</v>
@@ -7656,7 +7660,7 @@
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>62</v>
@@ -7680,7 +7684,7 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>55</v>
@@ -7704,7 +7708,7 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>231</v>
@@ -7728,7 +7732,7 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>242</v>
@@ -7752,7 +7756,7 @@
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>83</v>
@@ -7776,7 +7780,7 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -7792,7 +7796,7 @@
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="15" t="s">
         <v>354</v>
       </c>
@@ -7812,7 +7816,7 @@
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
         <v>252</v>
@@ -7838,7 +7842,7 @@
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="8" t="s">
         <v>244</v>
@@ -7862,7 +7866,7 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>246</v>
@@ -7886,7 +7890,7 @@
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>231</v>
@@ -7910,7 +7914,7 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>242</v>
@@ -7934,7 +7938,7 @@
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>83</v>
@@ -7958,7 +7962,7 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -7974,7 +7978,7 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="7" t="s">
         <v>376</v>
       </c>
@@ -7994,7 +7998,7 @@
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>160</v>
@@ -8020,7 +8024,7 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>228</v>
@@ -8044,7 +8048,7 @@
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
     </row>
-    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>62</v>
@@ -8068,7 +8072,7 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
         <v>55</v>
@@ -8092,7 +8096,7 @@
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
     </row>
-    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>87</v>
@@ -8116,7 +8120,7 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>219</v>
@@ -8140,7 +8144,7 @@
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>139</v>
@@ -8166,7 +8170,7 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="5" t="s">
         <v>339</v>
       </c>
@@ -8180,7 +8184,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>83</v>
@@ -8204,7 +8208,7 @@
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -8220,7 +8224,7 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" s="7" t="s">
         <v>437</v>
       </c>
@@ -8240,7 +8244,7 @@
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
     </row>
-    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>438</v>
@@ -8266,7 +8270,7 @@
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
     </row>
-    <row r="116" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>228</v>
@@ -8290,7 +8294,7 @@
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
     </row>
-    <row r="117" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>32</v>
@@ -8314,7 +8318,7 @@
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
     </row>
-    <row r="118" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B118" s="22" t="s">
         <v>393</v>
       </c>
@@ -8331,7 +8335,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>83</v>
@@ -8355,7 +8359,7 @@
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -8371,7 +8375,7 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
     </row>
-    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="15" t="s">
         <v>356</v>
       </c>
@@ -8391,7 +8395,7 @@
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
     </row>
-    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>160</v>
@@ -8417,7 +8421,7 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>87</v>
@@ -8441,7 +8445,7 @@
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
     </row>
-    <row r="124" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>83</v>
@@ -8465,7 +8469,7 @@
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
     </row>
-    <row r="125" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -8481,7 +8485,7 @@
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
     </row>
-    <row r="126" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A126" s="7" t="s">
         <v>377</v>
       </c>
@@ -8501,7 +8505,7 @@
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="8"/>
       <c r="B127" s="8" t="s">
         <v>264</v>
@@ -8521,7 +8525,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="8"/>
       <c r="B128" s="8" t="s">
         <v>228</v>
@@ -8545,7 +8549,7 @@
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B129" s="10" t="s">
         <v>62</v>
       </c>
@@ -8559,7 +8563,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B130" s="10" t="s">
         <v>55</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B131" s="10" t="s">
         <v>139</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A132" s="8"/>
       <c r="B132" s="8" t="s">
         <v>268</v>
@@ -8614,7 +8618,7 @@
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
     </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>83</v>
@@ -8638,7 +8642,7 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="16" t="s">
         <v>355</v>
       </c>
@@ -8652,7 +8656,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>91</v>
@@ -8672,7 +8676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>228</v>
@@ -8692,7 +8696,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>230</v>
@@ -8710,7 +8714,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>213</v>
@@ -8728,7 +8732,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
@@ -8746,7 +8750,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>310</v>
       </c>
@@ -8766,7 +8770,7 @@
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B144" s="4" t="s">
         <v>313</v>
       </c>
@@ -8789,7 +8793,7 @@
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
     </row>
-    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B145" s="4" t="s">
         <v>228</v>
       </c>
@@ -8812,7 +8816,7 @@
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
     </row>
-    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B146" s="4" t="s">
         <v>231</v>
       </c>
@@ -8835,7 +8839,7 @@
       <c r="M146" s="10"/>
       <c r="N146" s="10"/>
     </row>
-    <row r="147" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B147" s="4" t="s">
         <v>315</v>
       </c>
@@ -8855,7 +8859,7 @@
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
     </row>
-    <row r="148" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B148" s="24" t="s">
         <v>317</v>
       </c>
@@ -8875,7 +8879,7 @@
       <c r="M148" s="25"/>
       <c r="N148" s="25"/>
     </row>
-    <row r="149" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B149" s="4" t="s">
         <v>83</v>
       </c>
@@ -8895,7 +8899,7 @@
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
     </row>
-    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A151" s="21" t="s">
         <v>368</v>
       </c>
@@ -8915,7 +8919,7 @@
       <c r="M151" s="8"/>
       <c r="N151" s="8"/>
     </row>
-    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>91</v>
@@ -8941,7 +8945,7 @@
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
     </row>
-    <row r="153" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B153" s="20" t="s">
         <v>228</v>
       </c>
@@ -8964,7 +8968,7 @@
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
     </row>
-    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>435</v>
@@ -8988,7 +8992,7 @@
       <c r="M154" s="8"/>
       <c r="N154" s="8"/>
     </row>
-    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>230</v>
@@ -9012,7 +9016,7 @@
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
     </row>
-    <row r="156" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A156" s="20"/>
       <c r="B156" s="20" t="s">
         <v>213</v>
@@ -9030,7 +9034,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>145</v>
@@ -9054,7 +9058,7 @@
       <c r="M157" s="8"/>
       <c r="N157" s="8"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>83</v>
@@ -9072,7 +9076,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A160" s="21" t="s">
         <v>457</v>
       </c>
@@ -9086,7 +9090,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="161" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B161" s="20" t="s">
         <v>97</v>
       </c>
@@ -9103,7 +9107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B162" s="20" t="s">
         <v>456</v>
       </c>
@@ -9120,7 +9124,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="163" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B163" s="20" t="s">
         <v>83</v>
       </c>

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE2348D-E751-465E-B311-2D64DAF9ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857C2CF2-4A05-4F01-900F-F3F37CC9F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -2363,17 +2363,17 @@
       <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="86.19921875" customWidth="1"/>
-    <col min="9" max="12" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="86.25" customWidth="1"/>
+    <col min="9" max="12" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>83</v>
       </c>
@@ -2472,9 +2472,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
@@ -2575,8 +2575,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>333</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>342</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>321</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>324</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>325</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>326</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>176</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>363</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>231</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>172</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>423</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>271</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>329</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2980,8 +2980,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>334</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>343</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -3029,7 +3029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>342</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>344</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
@@ -3071,8 +3071,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
         <v>275</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
@@ -3145,8 +3145,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
         <v>278</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>32</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="20" t="s">
         <v>55</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
@@ -3247,8 +3247,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
@@ -3312,8 +3312,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>364</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>39</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>34</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>49</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>50</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>51</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>66</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>83</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="19" t="s">
         <v>393</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>53</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>169</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>170</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>387</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="20" t="s">
         <v>231</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="20" t="s">
         <v>92</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="20" t="s">
         <v>93</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>83</v>
       </c>
@@ -3625,8 +3625,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>181</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>62</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="17" t="s">
         <v>358</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
@@ -3702,8 +3702,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="5" t="s">
         <v>198</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>55</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>53</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>58</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="17" t="s">
         <v>63</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>217</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>83</v>
       </c>
@@ -3874,8 +3874,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="5" t="s">
         <v>198</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>62</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>53</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
         <v>65</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
         <v>58</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
         <v>61</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="17" t="s">
         <v>63</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="17" t="s">
         <v>64</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
         <v>217</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>83</v>
       </c>
@@ -4032,8 +4032,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>186</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="5" t="s">
         <v>198</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>62</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>53</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>58</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>61</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>83</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4144,7 +4144,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>189</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="5" t="s">
         <v>198</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>62</v>
@@ -4193,7 +4193,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>53</v>
@@ -4211,7 +4211,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>51</v>
@@ -4229,7 +4229,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
@@ -4247,8 +4247,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="5" t="s">
         <v>198</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>62</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>53</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>71</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>72</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>65</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>217</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
         <v>83</v>
       </c>
@@ -4377,8 +4377,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>365</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>75</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>77</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>79</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>83</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>202</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B160" s="5" t="s">
         <v>198</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B161" s="20" t="s">
         <v>55</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>75</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
         <v>87</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="5" t="s">
         <v>198</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>55</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
         <v>219</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
       <c r="B169" s="22" t="s">
         <v>395</v>
@@ -4607,7 +4607,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="22"/>
       <c r="B170" s="22" t="s">
         <v>400</v>
@@ -4625,7 +4625,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>231</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>204</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>88</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>83</v>
       </c>
@@ -4681,8 +4681,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>208</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B177" s="4" t="s">
         <v>87</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B178" s="5" t="s">
         <v>106</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B179" s="4" t="s">
         <v>219</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="s">
         <v>230</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
         <v>204</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="s">
         <v>108</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
         <v>88</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B184" s="4" t="s">
         <v>205</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="s">
         <v>83</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>366</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="5" t="s">
         <v>379</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>62</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>230</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>367</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>83</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>369</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>96</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>62</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
         <v>55</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>391</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>83</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>372</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>97</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>103</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>102</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>83</v>
       </c>
@@ -5066,8 +5066,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>370</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
         <v>97</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
         <v>96</v>
       </c>
@@ -5115,8 +5115,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>382</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B214" s="5" t="s">
         <v>106</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B215" s="5" t="s">
         <v>384</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B216" s="5" t="s">
         <v>65</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B217" s="5" t="s">
         <v>110</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
         <v>217</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B219" s="5" t="s">
         <v>83</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>373</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
         <v>119</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B223" s="4" t="s">
         <v>120</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B224" s="4" t="s">
         <v>135</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B225" s="20" t="s">
         <v>433</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B226" s="4" t="s">
         <v>122</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
         <v>125</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
         <v>83</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5345,7 +5345,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
         <v>231</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
         <v>383</v>
@@ -5396,7 +5396,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
         <v>83</v>
@@ -5414,7 +5414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>381</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>280</v>
@@ -5448,7 +5448,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>62</v>
@@ -5466,7 +5466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>55</v>
@@ -5484,7 +5484,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B239" s="20" t="s">
         <v>231</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B240" s="20" t="s">
         <v>192</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="4" t="s">
         <v>308</v>
@@ -5530,7 +5530,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>83</v>
@@ -5548,7 +5548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="21" t="s">
         <v>394</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="22"/>
       <c r="B245" s="22" t="s">
         <v>395</v>
@@ -5582,7 +5582,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="22"/>
       <c r="B246" s="22" t="s">
         <v>416</v>
@@ -5602,7 +5602,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>83</v>
@@ -5620,7 +5620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5630,7 +5630,7 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="21" t="s">
         <v>426</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="22"/>
       <c r="B250" s="22" t="s">
         <v>427</v>
@@ -5664,7 +5664,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="22"/>
       <c r="B251" s="22" t="s">
         <v>428</v>
@@ -5684,7 +5684,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="20" t="s">
         <v>429</v>
@@ -5702,7 +5702,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>83</v>
@@ -5720,7 +5720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
         <v>403</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>402</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>404</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>83</v>
@@ -5783,7 +5783,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="21" t="s">
         <v>411</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="20"/>
       <c r="B261" s="20" t="s">
         <v>405</v>
@@ -5817,7 +5817,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="20"/>
       <c r="B262" s="20" t="s">
         <v>412</v>
@@ -5835,7 +5835,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>83</v>
@@ -5868,18 +5868,18 @@
       <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="7.09765625" style="10" customWidth="1"/>
+    <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="47.69921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.75" style="10" customWidth="1"/>
     <col min="9" max="14" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>224</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>255</v>
@@ -5960,7 +5960,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>225</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>441</v>
@@ -6000,7 +6000,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>443</v>
@@ -6026,7 +6026,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>402</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>405</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>445</v>
@@ -6078,7 +6078,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>131</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>228</v>
@@ -6132,7 +6132,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>224</v>
@@ -6156,7 +6156,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>319</v>
@@ -6182,7 +6182,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>119</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>232</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>233</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>136</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>257</v>
@@ -6276,7 +6276,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>281</v>
@@ -6300,7 +6300,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>283</v>
@@ -6324,7 +6324,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>446</v>
@@ -6348,7 +6348,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>83</v>
@@ -6372,7 +6372,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>341</v>
       </c>
@@ -6392,7 +6392,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>331</v>
@@ -6418,7 +6418,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
         <v>228</v>
@@ -6442,7 +6442,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>11</v>
@@ -6466,7 +6466,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
         <v>419</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
         <v>420</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
         <v>32</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
         <v>452</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
         <v>453</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="20" t="s">
         <v>454</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>83</v>
@@ -6574,7 +6574,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -6590,7 +6590,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>350</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="5" t="s">
         <v>106</v>
@@ -6636,7 +6636,7 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>228</v>
@@ -6662,7 +6662,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>65</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>110</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>87</v>
@@ -6714,7 +6714,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>219</v>
@@ -6738,7 +6738,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>83</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6765,7 +6765,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>375</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>285</v>
@@ -6811,7 +6811,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>228</v>
@@ -6835,7 +6835,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>287</v>
@@ -6859,7 +6859,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>288</v>
@@ -6883,7 +6883,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>289</v>
@@ -6907,7 +6907,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>290</v>
@@ -6931,7 +6931,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>291</v>
@@ -6955,7 +6955,7 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>297</v>
@@ -6979,7 +6979,7 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>298</v>
@@ -7003,7 +7003,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>299</v>
@@ -7027,7 +7027,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>300</v>
@@ -7051,7 +7051,7 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>83</v>
@@ -7075,7 +7075,7 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7091,7 +7091,7 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -7107,7 +7107,7 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -7123,7 +7123,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>270</v>
       </c>
@@ -7143,7 +7143,7 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="5" t="s">
         <v>275</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>228</v>
@@ -7186,7 +7186,7 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>83</v>
@@ -7210,7 +7210,7 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -7226,7 +7226,7 @@
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>352</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>274</v>
@@ -7272,7 +7272,7 @@
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>228</v>
@@ -7296,7 +7296,7 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>32</v>
@@ -7320,7 +7320,7 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>39</v>
@@ -7344,7 +7344,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>83</v>
@@ -7368,7 +7368,7 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -7384,7 +7384,7 @@
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>351</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>244</v>
@@ -7430,7 +7430,7 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>228</v>
@@ -7454,7 +7454,7 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>248</v>
@@ -7478,7 +7478,7 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>231</v>
@@ -7502,7 +7502,7 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>241</v>
@@ -7526,7 +7526,7 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>242</v>
@@ -7550,7 +7550,7 @@
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>83</v>
@@ -7574,7 +7574,7 @@
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -7590,7 +7590,7 @@
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>353</v>
       </c>
@@ -7610,7 +7610,7 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
         <v>246</v>
@@ -7636,7 +7636,7 @@
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>228</v>
@@ -7660,7 +7660,7 @@
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>62</v>
@@ -7684,7 +7684,7 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>55</v>
@@ -7708,7 +7708,7 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>231</v>
@@ -7732,7 +7732,7 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>242</v>
@@ -7756,7 +7756,7 @@
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>83</v>
@@ -7780,7 +7780,7 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -7796,7 +7796,7 @@
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>354</v>
       </c>
@@ -7816,7 +7816,7 @@
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
         <v>252</v>
@@ -7842,7 +7842,7 @@
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="8" t="s">
         <v>244</v>
@@ -7866,7 +7866,7 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>246</v>
@@ -7890,7 +7890,7 @@
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>231</v>
@@ -7914,7 +7914,7 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>242</v>
@@ -7938,7 +7938,7 @@
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>83</v>
@@ -7962,7 +7962,7 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -7978,7 +7978,7 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>376</v>
       </c>
@@ -7998,7 +7998,7 @@
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>160</v>
@@ -8024,7 +8024,7 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>228</v>
@@ -8048,7 +8048,7 @@
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
     </row>
-    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>62</v>
@@ -8072,7 +8072,7 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
         <v>55</v>
@@ -8096,7 +8096,7 @@
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
     </row>
-    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>87</v>
@@ -8120,7 +8120,7 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>219</v>
@@ -8144,7 +8144,7 @@
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>139</v>
@@ -8170,7 +8170,7 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="5" t="s">
         <v>339</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>83</v>
@@ -8208,7 +8208,7 @@
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -8224,7 +8224,7 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>437</v>
       </c>
@@ -8244,7 +8244,7 @@
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
     </row>
-    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>438</v>
@@ -8270,7 +8270,7 @@
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
     </row>
-    <row r="116" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>228</v>
@@ -8294,7 +8294,7 @@
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
     </row>
-    <row r="117" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>32</v>
@@ -8318,7 +8318,7 @@
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
     </row>
-    <row r="118" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="22" t="s">
         <v>393</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>83</v>
@@ -8359,7 +8359,7 @@
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -8375,7 +8375,7 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
     </row>
-    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
         <v>356</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
     </row>
-    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>160</v>
@@ -8421,7 +8421,7 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>87</v>
@@ -8445,7 +8445,7 @@
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
     </row>
-    <row r="124" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>83</v>
@@ -8469,7 +8469,7 @@
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
     </row>
-    <row r="125" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -8485,7 +8485,7 @@
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
     </row>
-    <row r="126" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>377</v>
       </c>
@@ -8505,7 +8505,7 @@
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="8" t="s">
         <v>264</v>
@@ -8525,7 +8525,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" s="8" t="s">
         <v>228</v>
@@ -8549,7 +8549,7 @@
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>62</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>55</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>139</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" s="8" t="s">
         <v>268</v>
@@ -8618,7 +8618,7 @@
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
     </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>83</v>
@@ -8642,7 +8642,7 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="16" t="s">
         <v>355</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>91</v>
@@ -8676,7 +8676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>228</v>
@@ -8696,7 +8696,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>230</v>
@@ -8714,7 +8714,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>213</v>
@@ -8732,7 +8732,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
@@ -8750,7 +8750,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>310</v>
       </c>
@@ -8770,7 +8770,7 @@
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
         <v>313</v>
       </c>
@@ -8793,7 +8793,7 @@
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
     </row>
-    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>228</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
     </row>
-    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>231</v>
       </c>
@@ -8839,7 +8839,7 @@
       <c r="M146" s="10"/>
       <c r="N146" s="10"/>
     </row>
-    <row r="147" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>315</v>
       </c>
@@ -8859,7 +8859,7 @@
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
     </row>
-    <row r="148" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="24" t="s">
         <v>317</v>
       </c>
@@ -8879,7 +8879,7 @@
       <c r="M148" s="25"/>
       <c r="N148" s="25"/>
     </row>
-    <row r="149" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>83</v>
       </c>
@@ -8899,7 +8899,7 @@
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
     </row>
-    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="21" t="s">
         <v>368</v>
       </c>
@@ -8919,7 +8919,7 @@
       <c r="M151" s="8"/>
       <c r="N151" s="8"/>
     </row>
-    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>91</v>
@@ -8945,7 +8945,7 @@
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
     </row>
-    <row r="153" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="20" t="s">
         <v>228</v>
       </c>
@@ -8968,7 +8968,7 @@
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
     </row>
-    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>435</v>
@@ -8992,7 +8992,7 @@
       <c r="M154" s="8"/>
       <c r="N154" s="8"/>
     </row>
-    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>230</v>
@@ -9016,7 +9016,7 @@
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
     </row>
-    <row r="156" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="20"/>
       <c r="B156" s="20" t="s">
         <v>213</v>
@@ -9034,7 +9034,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>145</v>
@@ -9058,7 +9058,7 @@
       <c r="M157" s="8"/>
       <c r="N157" s="8"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>83</v>
@@ -9076,7 +9076,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="21" t="s">
         <v>457</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="161" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B161" s="20" t="s">
         <v>97</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="20" t="s">
         <v>456</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="163" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B163" s="20" t="s">
         <v>83</v>
       </c>

--- a/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/docs/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857C2CF2-4A05-4F01-900F-F3F37CC9F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC68321-BD02-4222-A64B-E9F9164F58C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -2359,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
   <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H173" sqref="H173"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
